--- a/E-Com/PYPL.xlsx
+++ b/E-Com/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE08536-E1CC-44EB-8450-43AD47098811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95343FA8-724E-41D8-9CC4-73FB430B23AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="90" windowWidth="14460" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$5:$X$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$5:$T$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$6:$T$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$T$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$T$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$T$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="154">
   <si>
     <t>Price</t>
   </si>
@@ -348,15 +348,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -423,9 +414,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>FY19</t>
@@ -783,6 +771,15 @@
   </si>
   <si>
     <t>EPS Growth</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1522,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1574,7 +1571,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1677,6 +1673,17 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1734,35 +1741,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1884,7 +1874,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1896,21 +1886,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1919,7 +1916,26 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
+                <c16:uniqueId val="{00000004-584C-4DAA-87DC-17FA6C7A8B4C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1980,95 +1996,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$L$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$5:$X$5</c:f>
+              <c:f>Model!$L$5:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6483</c:v>
+                  <c:v>7040</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6806</c:v>
+                  <c:v>7287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6846</c:v>
+                  <c:v>7418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7383</c:v>
+                  <c:v>8026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7040</c:v>
+                  <c:v>7699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7287</c:v>
+                  <c:v>7885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7418</c:v>
+                  <c:v>7880</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7699</c:v>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>8480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,36 +2187,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$25:$X$25</c:f>
+              <c:f>Model!$L$25:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.5917013728212144E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.0672935645019086E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.3552439380660148E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.7091968034674228E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5917013728212144E-2</c:v>
+                  <c:v>9.3607954545454453E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0672935645019086E-2</c:v>
+                  <c:v>8.2063949499108002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3552439380660148E-2</c:v>
+                  <c:v>6.228093825829073E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.3607954545454453E-2</c:v>
+                  <c:v>5.6566159980064867E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,6 +2616,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7FC6-462D-A581-DD8D228DEC94}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2710,6 +2736,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>29771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,10 +2876,10 @@
                   <c:v>8.1873682680427384E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1848443115783756E-2</c:v>
+                  <c:v>7.2856135165093594E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0852397367596307E-2</c:v>
+                  <c:v>7.7332498434564911E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,11 +3223,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$19</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income</c:v>
+                  <c:v>EPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3211,12 +3243,31 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7DA6-4954-8732-861AA70562CD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3226,27 +3277,6 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3307,95 +3337,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$X$2</c:f>
+              <c:f>Model!$L$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$19:$X$19</c:f>
+              <c:f>Model!$L$21:$W$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.43430034129692835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.29447322970639034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1495246326707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.79602420051858258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>509</c:v>
+                  <c:v>0.70105820105820105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-341</c:v>
+                  <c:v>0.92369838420107719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1330</c:v>
+                  <c:v>0.92896174863387981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>921</c:v>
+                  <c:v>1.2768670309653916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>795</c:v>
+                  <c:v>0.82835820895522383</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1029</c:v>
+                  <c:v>1.0773638968481376</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1020</c:v>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.06</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>888</c:v>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3504,48 +3528,45 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$23:$X$23</c:f>
+              <c:f>Model!$L$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42619157797316054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.40816926241551577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.43558282208588961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.42394690505214683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42619157797316054</c:v>
+                  <c:v>0.40156250000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40816926241551577</c:v>
+                  <c:v>0.39193083573487031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43558282208588961</c:v>
+                  <c:v>0.39026691830682125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42394690505214683</c:v>
+                  <c:v>0.39957637677547964</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40156250000000004</c:v>
+                  <c:v>0.39057020392258734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39193083573487031</c:v>
+                  <c:v>0.40228281547241596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39026691830682125</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39057020392258734</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,7 +3660,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3889,11 +3910,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$19</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Income</c:v>
+                  <c:v>EPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3908,6 +3929,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E054-445C-B2CA-879F4F36A272}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E054-445C-B2CA-879F4F36A272}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3992,24 +4051,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$19:$I$19</c:f>
+              <c:f>Model!$C$21:$I$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2459</c:v>
+                  <c:v>2.0698653198653201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4202</c:v>
+                  <c:v>3.5400168491996631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4169</c:v>
+                  <c:v>3.5151770657672849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2419</c:v>
+                  <c:v>2.0889464594127807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4246</c:v>
+                  <c:v>3.8355916892502258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,10 +4198,10 @@
                   <c:v>0.83613690622230741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12107866227037212</c:v>
+                  <c:v>0.15497173810645304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1116279069767443</c:v>
+                  <c:v>9.4808126410835136E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4230,7 +4295,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4588,83 +4653,89 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$L$2:$V$2</c:f>
+              <c:f>Model!$L$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$26:$V$26</c:f>
+              <c:f>Model!$L$26:$W$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>9.1624248033317909E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7422862180429037E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9462459830557997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0973858864960049E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1931818181818185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3812268423219437E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9584793744944728E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8061300772489409E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4682426289128457E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6563094483195943E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.1624248033317909E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7422862180429037E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.9462459830557997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0973858864960049E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1931818181818185E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3812268423219437E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9584793744944728E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,6 +4843,50 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$L$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Model!$L$27:$W$27</c:f>
@@ -4779,37 +4894,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.12571340428813821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.1197472818101675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.11700262927256792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.11133685493701748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12571340428813821</c:v>
+                  <c:v>0.10241477272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1197472818101675</c:v>
+                  <c:v>0.10196239879236997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11700262927256792</c:v>
+                  <c:v>9.9622539768131568E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11133685493701748</c:v>
+                  <c:v>9.5938200847246455E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10241477272727273</c:v>
+                  <c:v>9.6376152747110019E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10196239879236997</c:v>
+                  <c:v>9.105897273303741E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9622539768131568E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4920,6 +5035,50 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$L$2:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Q122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Model!$L$28:$W$28</c:f>
@@ -4927,37 +5086,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.3629492518895574E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.5521598589479877E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.7630733274905055E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.9754842205065698E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3629492518895574E-2</c:v>
+                  <c:v>7.2017045454545459E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5521598589479877E-2</c:v>
+                  <c:v>6.7380266227528476E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7630733274905055E-2</c:v>
+                  <c:v>6.8347263413318954E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9754842205065698E-2</c:v>
+                  <c:v>6.902566658360329E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2017045454545459E-2</c:v>
+                  <c:v>6.0267567216521628E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7380266227528476E-2</c:v>
+                  <c:v>7.2289156626506021E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8347263413318954E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6564,18 +6723,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6619,7 +6778,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6639,7 +6798,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6670,18 +6829,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6725,7 +6884,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6745,7 +6904,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13061,8 +13220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13085,34 +13244,34 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="20">
         <v>45419</v>
@@ -13151,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>66.09</v>
+        <v>73.16</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
@@ -13164,7 +13323,10 @@
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f>Model!U20</f>
+        <v>1047</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
@@ -13178,7 +13340,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>0</v>
+        <v>76598.51999999999</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -13192,8 +13354,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!F24</f>
-        <v>8.7906097826876958E-2</v>
+        <f>Model!U33+Model!U34</f>
+        <v>13616</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
@@ -13207,8 +13369,8 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F33+Model!F37</f>
-        <v>15207</v>
+        <f>Model!U52</f>
+        <v>9727</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
@@ -13219,11 +13381,11 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>-15206.912093902172</v>
+        <v>3889</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
@@ -13238,7 +13400,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>15206.912093902172</v>
+        <v>72709.51999999999</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
@@ -13248,11 +13410,11 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="36" t="e">
-        <f>C6/Model!#REF!</f>
-        <v>#REF!</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="36">
+        <f>C6/Model!G21</f>
+        <v>19.073980216674517</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13261,11 +13423,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!G15</f>
-        <v>1.314439140811456E-2</v>
+        <f>C6/Model!H21</f>
+        <v>16.514672686230249</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13279,332 +13441,334 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="36" t="e">
-        <f>C6/Model!H15</f>
-        <v>#DIV/0!</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="36">
+        <f>C6/Model!I21</f>
+        <v>15.084536082474227</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="e">
-        <f>Model!G15/Model!#REF!-1</f>
-        <v>#REF!</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="6">
+        <f>Model!H21/Model!G21-1</f>
+        <v>0.15497173810645304</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!H15/Model!G15-1</f>
-        <v>-1</v>
+        <f>Model!I21/Model!H21-1</f>
+        <v>9.4808126410835136E-2</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
+        <v>52</v>
+      </c>
+      <c r="L17" s="127"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="46" t="e">
+        <v>67</v>
+      </c>
+      <c r="C18" s="45">
         <f>C14/(C16*100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
+        <v>1.0656570603141848</v>
+      </c>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="46" t="e">
+        <v>68</v>
+      </c>
+      <c r="C19" s="45">
         <f>C15/(C17*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="126"/>
+        <v>1.591059401080021</v>
+      </c>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="132"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="124"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="126"/>
+        <v>76</v>
+      </c>
+      <c r="C20" s="6">
+        <f>Model!H6/Model!G5-1</f>
+        <v>7.2856135165093594E-2</v>
+      </c>
+      <c r="L20" s="130"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="126"/>
+        <v>77</v>
+      </c>
+      <c r="C21" s="6">
+        <f>Model!I6/Model!H6-1</f>
+        <v>7.7332498434564911E-2</v>
+      </c>
+      <c r="L21" s="130"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="132"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!F11+Model!F9</f>
-        <v>4377</v>
-      </c>
-      <c r="L22" s="124"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="126"/>
+        <f>Model!G15</f>
+        <v>5028</v>
+      </c>
+      <c r="L22" s="130"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F11</f>
-        <v>2257</v>
-      </c>
-      <c r="L23" s="124"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="126"/>
+        <f>Model!G15</f>
+        <v>5028</v>
+      </c>
+      <c r="L23" s="130"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F16</f>
-        <v>-471</v>
-      </c>
-      <c r="L24" s="124"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="126"/>
+        <f>Model!G23</f>
+        <v>0.39585502670383932</v>
+      </c>
+      <c r="L24" s="130"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="7" t="e">
-        <f>Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="124"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="126"/>
+        <v>29</v>
+      </c>
+      <c r="C25" s="7">
+        <f>Model!G24</f>
+        <v>0.14262201471230393</v>
+      </c>
+      <c r="L25" s="130"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="132"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>6.7376659698281669</v>
-      </c>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="126"/>
+        <v>14.460922832140014</v>
+      </c>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="117" t="e">
-        <f>Model!Q37/Model!Q43</f>
-        <v>#DIV/0!</v>
+        <v>78</v>
+      </c>
+      <c r="C27" s="116">
+        <f>C10/Model!U54</f>
+        <v>0.47168072931820387</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="124"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="126"/>
+        <v>71</v>
+      </c>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="132"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="36">
-        <f>C22/-Model!F9</f>
-        <v>-2.064622641509434</v>
-      </c>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="129"/>
+        <f>C22/Model!G16</f>
+        <v>13.127937336814622</v>
+      </c>
+      <c r="L28" s="133"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="135"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="36" t="e">
-        <f>Model!#REF!/Model!Q36</f>
-        <v>#REF!</v>
+        <v>80</v>
+      </c>
+      <c r="C29" s="36">
+        <f>Model!U40/Model!U50</f>
+        <v>1.2417328890028199</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="36" t="e">
-        <f>(Model!Q24+Model!Q25)/Model!Q36</f>
-        <v>#DIV/0!</v>
+        <v>81</v>
+      </c>
+      <c r="C30" s="36">
+        <f>(Model!U33+Model!U34+Model!U35)/Model!U47</f>
+        <v>109.79699248120301</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="6" t="e">
-        <f>(Model!#REF!-Model!Q36)/Model!Q32</f>
-        <v>#REF!</v>
+        <v>82</v>
+      </c>
+      <c r="C31" s="6">
+        <f>(Model!U40-Model!U50)/Model!U46</f>
+        <v>0.14591268329841936</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="36" t="e">
-        <f>(Model!Q32-Model!Q42)/Main!C7</f>
-        <v>#DIV/0!</v>
+        <v>83</v>
+      </c>
+      <c r="C32" s="36">
+        <f>(Model!M32-Model!M42)/Main!C7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="36" t="e">
-        <f>Model!#REF!/Model!Q32</f>
-        <v>#REF!</v>
+        <v>84</v>
+      </c>
+      <c r="C33" s="36">
+        <f>Model!G5/Model!G46</f>
+        <v>0.36232748338728915</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="39" t="e">
-        <f>Model!Q13/Model!Q32</f>
-        <v>#DIV/0!</v>
+        <v>85</v>
+      </c>
+      <c r="C34" s="39">
+        <f>Model!G19/Model!G46</f>
+        <v>5.1675875666334005E-2</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="39" t="e">
-        <f>Model!Q13/Model!Q43</f>
-        <v>#DIV/0!</v>
+        <v>86</v>
+      </c>
+      <c r="C35" s="39">
+        <f>Model!G19/Model!G54</f>
+        <v>0.20170063179896441</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13617,13 +13781,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13631,84 +13795,78 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="153"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="20" max="20" width="11.42578125" style="146"/>
+    <col min="21" max="21" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="T2" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="W2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" s="10">
         <v>16099</v>
@@ -13725,37 +13883,41 @@
       <c r="G3" s="15">
         <v>26857</v>
       </c>
+      <c r="L3" s="10">
+        <v>5998</v>
+      </c>
+      <c r="M3" s="10">
+        <v>6272</v>
+      </c>
+      <c r="N3" s="10">
+        <v>6234</v>
+      </c>
+      <c r="O3" s="10">
+        <f>F3-N3-M3-L3</f>
+        <v>6702</v>
+      </c>
       <c r="P3" s="10">
-        <v>5998</v>
+        <v>6364</v>
       </c>
       <c r="Q3" s="10">
-        <v>6272</v>
+        <v>6556</v>
       </c>
       <c r="R3" s="10">
-        <v>6234</v>
+        <v>6654</v>
       </c>
       <c r="S3" s="10">
-        <f>F3-R3-Q3-P3</f>
-        <v>6702</v>
-      </c>
-      <c r="T3" s="10">
-        <v>6364</v>
-      </c>
-      <c r="U3" s="10">
-        <v>6556</v>
-      </c>
-      <c r="V3" s="10">
-        <v>6654</v>
-      </c>
-      <c r="W3" s="155"/>
-      <c r="X3" s="15">
+        <f>G3-R3-Q3-P3</f>
+        <v>7283</v>
+      </c>
+      <c r="T3" s="147">
         <v>7034</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="10">
         <v>1673</v>
@@ -13772,36 +13934,40 @@
       <c r="G4" s="15">
         <v>2914</v>
       </c>
+      <c r="L4" s="10">
+        <v>485</v>
+      </c>
+      <c r="M4" s="10">
+        <v>534</v>
+      </c>
+      <c r="N4" s="10">
+        <v>612</v>
+      </c>
+      <c r="O4" s="10">
+        <f>F4-N4-M4-L4</f>
+        <v>681</v>
+      </c>
       <c r="P4" s="10">
-        <v>485</v>
+        <v>676</v>
       </c>
       <c r="Q4" s="10">
-        <v>534</v>
+        <v>731</v>
       </c>
       <c r="R4" s="10">
-        <v>612</v>
+        <v>764</v>
       </c>
       <c r="S4" s="10">
-        <f>F4-R4-Q4-P4</f>
-        <v>681</v>
-      </c>
-      <c r="T4" s="10">
-        <v>676</v>
-      </c>
-      <c r="U4" s="10">
-        <v>731</v>
-      </c>
-      <c r="V4" s="10">
-        <v>764</v>
-      </c>
-      <c r="W4" s="155"/>
-      <c r="X4" s="15">
+        <f>G4-R4-Q4-P4</f>
+        <v>743</v>
+      </c>
+      <c r="T4" s="147">
         <v>665</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11">
         <f>SUM(C3:C4)</f>
@@ -13823,72 +13989,61 @@
         <f t="shared" si="0"/>
         <v>29771</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="H5" s="41">
+        <v>31940</v>
+      </c>
+      <c r="I5" s="41">
+        <v>34410</v>
+      </c>
       <c r="L5" s="11">
         <f t="shared" ref="L5" si="1">SUM(L3:L4)</f>
-        <v>0</v>
+        <v>6483</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" ref="M5" si="2">SUM(M3:M4)</f>
-        <v>0</v>
+        <v>6806</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" ref="N5" si="3">SUM(N3:N4)</f>
-        <v>0</v>
+        <v>6846</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" ref="O5" si="4">SUM(O3:O4)</f>
-        <v>0</v>
+        <v>7383</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" ref="P5" si="5">SUM(P3:P4)</f>
-        <v>6483</v>
+        <v>7040</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" ref="Q5" si="6">SUM(Q3:Q4)</f>
-        <v>6806</v>
+        <v>7287</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" ref="R5" si="7">SUM(R3:R4)</f>
-        <v>6846</v>
+        <v>7418</v>
       </c>
       <c r="S5" s="11">
         <f t="shared" ref="S5" si="8">SUM(S3:S4)</f>
-        <v>7383</v>
-      </c>
-      <c r="T5" s="11">
+        <v>8026</v>
+      </c>
+      <c r="T5" s="148">
         <f t="shared" ref="T5" si="9">SUM(T3:T4)</f>
-        <v>7040</v>
-      </c>
-      <c r="U5" s="11">
-        <f t="shared" ref="U5" si="10">SUM(U3:U4)</f>
-        <v>7287</v>
-      </c>
-      <c r="V5" s="11">
-        <f t="shared" ref="V5" si="11">SUM(V3:V4)</f>
-        <v>7418</v>
-      </c>
-      <c r="W5" s="11">
-        <f t="shared" ref="W5" si="12">SUM(W3:W4)</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="11">
-        <f t="shared" ref="X5" si="13">SUM(X3:X4)</f>
         <v>7699</v>
       </c>
-      <c r="Y5" s="11">
-        <f t="shared" ref="Y5" si="14">SUM(Y3:Y4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11">
-        <f t="shared" ref="Z5" si="15">SUM(Z3:Z4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U5" s="14">
+        <v>7885</v>
+      </c>
+      <c r="V5" s="41">
+        <v>7880</v>
+      </c>
+      <c r="W5" s="9">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -13896,10 +14051,10 @@
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
       <c r="H6" s="43">
-        <v>31910</v>
+        <v>31940</v>
       </c>
       <c r="I6" s="43">
-        <v>34490</v>
+        <v>34410</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -13908,270 +14063,256 @@
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="41">
+      <c r="S6" s="10"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="154">
         <v>7790</v>
       </c>
-      <c r="Z6">
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="140" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="141">
+      <c r="V6">
+        <v>7880</v>
+      </c>
+      <c r="W6">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="10">
         <v>6790</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="10">
         <v>7934</v>
       </c>
-      <c r="E7" s="141">
+      <c r="E7" s="10">
         <v>10315</v>
       </c>
-      <c r="F7" s="141">
+      <c r="F7" s="10">
         <v>12173</v>
       </c>
-      <c r="G7" s="142">
+      <c r="G7" s="15">
         <v>14385</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="L7" s="10">
         <v>2817</v>
       </c>
-      <c r="Q7" s="141">
+      <c r="M7" s="10">
         <v>3044</v>
       </c>
-      <c r="R7" s="141">
+      <c r="N7" s="10">
         <v>2988</v>
       </c>
+      <c r="O7" s="10">
+        <f>F7-N7-M7-L7</f>
+        <v>3324</v>
+      </c>
+      <c r="P7" s="10">
+        <v>3283</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>3541</v>
+      </c>
+      <c r="R7" s="10">
+        <v>3603</v>
+      </c>
       <c r="S7" s="10">
-        <f t="shared" ref="S7:S9" si="16">F7-R7-Q7-P7</f>
-        <v>3324</v>
-      </c>
-      <c r="T7" s="141">
-        <v>3283</v>
-      </c>
-      <c r="U7" s="141">
-        <v>3541</v>
-      </c>
-      <c r="V7" s="141">
-        <v>3603</v>
-      </c>
-      <c r="W7" s="154"/>
-      <c r="X7" s="142">
+        <f>G7-R7-Q7-P7</f>
+        <v>3958</v>
+      </c>
+      <c r="T7" s="147">
         <v>3917</v>
       </c>
-      <c r="Y7" s="141"/>
-    </row>
-    <row r="8" spans="1:26" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="140" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="141">
+      <c r="U7" s="15">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="10">
         <v>1380</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="10">
         <v>1741</v>
       </c>
-      <c r="E8" s="141">
+      <c r="E8" s="10">
         <v>1060</v>
       </c>
-      <c r="F8" s="141">
+      <c r="F8" s="10">
         <v>1572</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="15">
         <v>1682</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="L8" s="10">
         <v>369</v>
       </c>
-      <c r="Q8" s="141">
+      <c r="M8" s="10">
         <v>448</v>
       </c>
-      <c r="R8" s="141">
+      <c r="N8" s="10">
         <v>367</v>
       </c>
+      <c r="O8" s="10">
+        <f>F8-N8-M8-L8</f>
+        <v>388</v>
+      </c>
+      <c r="P8" s="10">
+        <v>442</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>398</v>
+      </c>
+      <c r="R8" s="10">
+        <v>446</v>
+      </c>
       <c r="S8" s="10">
-        <f t="shared" si="16"/>
-        <v>388</v>
-      </c>
-      <c r="T8" s="141">
-        <v>442</v>
-      </c>
-      <c r="U8" s="141">
-        <v>398</v>
-      </c>
-      <c r="V8" s="141">
-        <v>446</v>
-      </c>
-      <c r="W8" s="154"/>
-      <c r="X8" s="142">
+        <f>G8-R8-Q8-P8</f>
+        <v>396</v>
+      </c>
+      <c r="T8" s="147">
         <v>321</v>
       </c>
-      <c r="Y8" s="141"/>
-    </row>
-    <row r="9" spans="1:26" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="141">
+      <c r="U8" s="15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="10">
         <v>1615</v>
       </c>
-      <c r="D9" s="141">
+      <c r="D9" s="10">
         <v>1778</v>
       </c>
-      <c r="E9" s="141">
+      <c r="E9" s="10">
         <v>2075</v>
       </c>
-      <c r="F9" s="141">
+      <c r="F9" s="10">
         <v>2120</v>
       </c>
-      <c r="G9" s="142">
+      <c r="G9" s="15">
         <v>1919</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="L9" s="10">
         <v>534</v>
       </c>
-      <c r="Q9" s="141">
+      <c r="M9" s="10">
         <v>536</v>
       </c>
-      <c r="R9" s="141">
+      <c r="N9" s="10">
         <v>509</v>
       </c>
+      <c r="O9" s="10">
+        <f>F9-N9-M9-L9</f>
+        <v>541</v>
+      </c>
+      <c r="P9" s="10">
+        <v>488</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>492</v>
+      </c>
+      <c r="R9" s="10">
+        <v>474</v>
+      </c>
       <c r="S9" s="10">
-        <f t="shared" si="16"/>
-        <v>541</v>
-      </c>
-      <c r="T9" s="141">
-        <v>488</v>
-      </c>
-      <c r="U9" s="141">
-        <v>492</v>
-      </c>
-      <c r="V9" s="141">
-        <v>474</v>
-      </c>
-      <c r="W9" s="154"/>
-      <c r="X9" s="142">
+        <f>G9-R9-Q9-P9</f>
+        <v>465</v>
+      </c>
+      <c r="T9" s="147">
         <v>454</v>
       </c>
-      <c r="Y9" s="141"/>
-    </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="11">
         <f>SUM(C7:C9)</f>
         <v>9785</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" ref="D10:I10" si="17">SUM(D7:D9)</f>
+        <f t="shared" ref="D10:I10" si="10">SUM(D7:D9)</f>
         <v>11453</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>13450</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>15865</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>17986</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" ref="L10" si="18">SUM(L7:L9)</f>
-        <v>0</v>
+        <f t="shared" ref="L10" si="11">SUM(L7:L9)</f>
+        <v>3720</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" ref="M10" si="19">SUM(M7:M9)</f>
-        <v>0</v>
+        <f t="shared" ref="M10" si="12">SUM(M7:M9)</f>
+        <v>4028</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" ref="N10" si="20">SUM(N7:N9)</f>
-        <v>0</v>
+        <f t="shared" ref="N10" si="13">SUM(N7:N9)</f>
+        <v>3864</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" ref="O10" si="21">SUM(O7:O9)</f>
-        <v>0</v>
+        <f t="shared" ref="O10" si="14">SUM(O7:O9)</f>
+        <v>4253</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" ref="P10" si="22">SUM(P7:P9)</f>
-        <v>3720</v>
+        <f t="shared" ref="P10" si="15">SUM(P7:P9)</f>
+        <v>4213</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" ref="Q10" si="23">SUM(Q7:Q9)</f>
-        <v>4028</v>
+        <f t="shared" ref="Q10" si="16">SUM(Q7:Q9)</f>
+        <v>4431</v>
       </c>
       <c r="R10" s="11">
-        <f t="shared" ref="R10" si="24">SUM(R7:R9)</f>
-        <v>3864</v>
+        <f t="shared" ref="R10" si="17">SUM(R7:R9)</f>
+        <v>4523</v>
       </c>
       <c r="S10" s="11">
-        <f t="shared" ref="S10" si="25">SUM(S7:S9)</f>
-        <v>4253</v>
-      </c>
-      <c r="T10" s="11">
-        <f t="shared" ref="T10" si="26">SUM(T7:T9)</f>
-        <v>4213</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" ref="U10" si="27">SUM(U7:U9)</f>
-        <v>4431</v>
-      </c>
-      <c r="V10" s="11">
-        <f t="shared" ref="V10" si="28">SUM(V7:V9)</f>
-        <v>4523</v>
-      </c>
-      <c r="W10" s="156">
-        <f t="shared" ref="W10" si="29">SUM(W7:W9)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <f t="shared" ref="X10" si="30">SUM(X7:X9)</f>
+        <f t="shared" ref="S10" si="18">SUM(S7:S9)</f>
+        <v>4819</v>
+      </c>
+      <c r="T10" s="148">
+        <f t="shared" ref="T10" si="19">SUM(T7:T9)</f>
         <v>4692</v>
       </c>
-      <c r="Y10" s="11">
-        <f t="shared" ref="Y10" si="31">SUM(Y7:Y9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U10" s="14">
+        <f t="shared" ref="U10" si="20">SUM(U7:U9)</f>
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10">
         <v>1401</v>
@@ -14190,40 +14331,42 @@
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="L11" s="10">
+        <v>594</v>
+      </c>
+      <c r="M11" s="10">
+        <v>595</v>
+      </c>
+      <c r="N11" s="10">
+        <v>544</v>
+      </c>
+      <c r="O11" s="10">
+        <f>F11-N11-M11-L11</f>
+        <v>524</v>
+      </c>
       <c r="P11" s="10">
-        <v>594</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="10">
-        <v>595</v>
+        <v>465</v>
       </c>
       <c r="R11" s="10">
-        <v>544</v>
+        <v>442</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S14" si="32">F11-R11-Q11-P11</f>
-        <v>524</v>
-      </c>
-      <c r="T11" s="10">
-        <v>436</v>
-      </c>
-      <c r="U11" s="10">
-        <v>465</v>
-      </c>
-      <c r="V11" s="10">
-        <v>442</v>
-      </c>
-      <c r="W11" s="155"/>
-      <c r="X11" s="13">
+        <f>G11-R11-Q11-P11</f>
+        <v>466</v>
+      </c>
+      <c r="T11" s="146">
         <v>421</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U11" s="13">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C12" s="10">
         <v>2085</v>
@@ -14242,40 +14385,42 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="L12" s="10">
+        <v>815</v>
+      </c>
+      <c r="M12" s="10">
+        <v>815</v>
+      </c>
+      <c r="N12" s="10">
+        <v>801</v>
+      </c>
+      <c r="O12" s="10">
+        <f>F12-N12-M12-L12</f>
+        <v>822</v>
+      </c>
       <c r="P12" s="10">
-        <v>815</v>
+        <v>721</v>
       </c>
       <c r="Q12" s="10">
-        <v>815</v>
+        <v>743</v>
       </c>
       <c r="R12" s="10">
-        <v>801</v>
+        <v>739</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="32"/>
-        <v>822</v>
-      </c>
-      <c r="T12" s="10">
-        <v>721</v>
-      </c>
-      <c r="U12" s="10">
-        <v>743</v>
-      </c>
-      <c r="V12" s="10">
-        <v>739</v>
-      </c>
-      <c r="W12" s="155"/>
-      <c r="X12" s="13">
+        <f>G12-R12-Q12-P12</f>
+        <v>770</v>
+      </c>
+      <c r="T12" s="146">
         <v>742</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U12" s="13">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10">
         <v>1711</v>
@@ -14294,40 +14439,42 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="L13" s="10">
+        <v>607</v>
+      </c>
+      <c r="M13" s="10">
+        <v>514</v>
+      </c>
+      <c r="N13" s="10">
+        <v>463</v>
+      </c>
+      <c r="O13" s="10">
+        <f>F13-N13-M13-L13</f>
+        <v>515</v>
+      </c>
       <c r="P13" s="10">
-        <v>607</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="10">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="R13" s="10">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="32"/>
-        <v>515</v>
-      </c>
-      <c r="T13" s="10">
-        <v>507</v>
-      </c>
-      <c r="U13" s="10">
-        <v>491</v>
-      </c>
-      <c r="V13" s="10">
-        <v>507</v>
-      </c>
-      <c r="W13" s="155"/>
-      <c r="X13" s="13">
+        <f>G13-R13-Q13-P13</f>
+        <v>554</v>
+      </c>
+      <c r="T13" s="146">
         <v>464</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U13" s="13">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C14" s="10">
         <v>71</v>
@@ -14346,131 +14493,117 @@
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="L14" s="10">
+        <v>36</v>
+      </c>
+      <c r="M14" s="10">
+        <v>90</v>
+      </c>
+      <c r="N14" s="10">
+        <v>56</v>
+      </c>
+      <c r="O14" s="10">
+        <f>F14-N14-M14-L14</f>
+        <v>25</v>
+      </c>
       <c r="P14" s="10">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="10">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="R14" s="10">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="32"/>
-        <v>25</v>
-      </c>
-      <c r="T14" s="10">
-        <v>164</v>
-      </c>
-      <c r="U14" s="10">
-        <v>24</v>
-      </c>
-      <c r="V14" s="10">
-        <v>39</v>
-      </c>
-      <c r="W14" s="155"/>
-      <c r="X14" s="13">
+        <f>G14-R14-Q14-P14</f>
+        <v>-311</v>
+      </c>
+      <c r="T14" s="146">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11">
         <f>C5-SUM(C10:C14)</f>
         <v>2719</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:I15" si="33">D5-SUM(D10:D14)</f>
+        <f t="shared" ref="D15:I15" si="21">D5-SUM(D10:D14)</f>
         <v>3289</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>4262</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>3837</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>5028</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>31940</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>34410</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
-        <f t="shared" ref="L15" si="34">L5-SUM(L10:L14)</f>
-        <v>0</v>
+        <f t="shared" ref="L15" si="22">L5-SUM(L10:L14)</f>
+        <v>711</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" ref="M15" si="35">M5-SUM(M10:M14)</f>
-        <v>0</v>
+        <f t="shared" ref="M15" si="23">M5-SUM(M10:M14)</f>
+        <v>764</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" ref="N15" si="36">N5-SUM(N10:N14)</f>
-        <v>0</v>
+        <f t="shared" ref="N15" si="24">N5-SUM(N10:N14)</f>
+        <v>1118</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" ref="O15" si="37">O5-SUM(O10:O14)</f>
-        <v>0</v>
+        <f t="shared" ref="O15" si="25">O5-SUM(O10:O14)</f>
+        <v>1244</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" ref="P15" si="38">P5-SUM(P10:P14)</f>
-        <v>711</v>
+        <f t="shared" ref="P15" si="26">P5-SUM(P10:P14)</f>
+        <v>999</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" ref="Q15" si="39">Q5-SUM(Q10:Q14)</f>
-        <v>764</v>
+        <f t="shared" ref="Q15" si="27">Q5-SUM(Q10:Q14)</f>
+        <v>1133</v>
       </c>
       <c r="R15" s="11">
-        <f t="shared" ref="R15" si="40">R5-SUM(R10:R14)</f>
-        <v>1118</v>
+        <f t="shared" ref="R15" si="28">R5-SUM(R10:R14)</f>
+        <v>1168</v>
       </c>
       <c r="S15" s="11">
-        <f t="shared" ref="S15" si="41">S5-SUM(S10:S14)</f>
-        <v>1244</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" ref="T15" si="42">T5-SUM(T10:T14)</f>
-        <v>999</v>
-      </c>
-      <c r="U15" s="11">
-        <f t="shared" ref="U15" si="43">U5-SUM(U10:U14)</f>
-        <v>1133</v>
-      </c>
-      <c r="V15" s="11">
-        <f t="shared" ref="V15" si="44">V5-SUM(V10:V14)</f>
+        <f t="shared" ref="S15" si="29">S5-SUM(S10:S14)</f>
+        <v>1728</v>
+      </c>
+      <c r="T15" s="148">
+        <f t="shared" ref="T15" si="30">T5-SUM(T10:T14)</f>
         <v>1168</v>
       </c>
-      <c r="W15" s="156">
-        <f t="shared" ref="W15" si="45">W5-SUM(W10:W14)</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="14">
-        <f t="shared" ref="X15" si="46">X5-SUM(X10:X14)</f>
-        <v>1168</v>
-      </c>
-      <c r="Y15" s="11">
-        <f t="shared" ref="Y15" si="47">Y5-SUM(Y10:Y14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U15" s="14">
+        <f t="shared" ref="U15" si="31">U5-SUM(U10:U14)</f>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="10">
         <v>279</v>
@@ -14489,129 +14622,115 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="L16" s="10">
+        <v>-82</v>
+      </c>
+      <c r="M16" s="10">
+        <v>-715</v>
+      </c>
+      <c r="N16" s="10">
+        <v>460</v>
+      </c>
+      <c r="O16" s="10">
+        <f>F16-N16-M16-L16</f>
+        <v>-134</v>
+      </c>
       <c r="P16" s="10">
-        <v>-82</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="10">
-        <v>-715</v>
+        <v>170</v>
       </c>
       <c r="R16" s="10">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="S16" s="10">
-        <f>F16-R16-Q16-P16</f>
-        <v>-134</v>
-      </c>
-      <c r="T16" s="10">
-        <v>75</v>
-      </c>
-      <c r="U16" s="10">
-        <v>170</v>
-      </c>
-      <c r="V16" s="10">
-        <v>73</v>
-      </c>
-      <c r="W16" s="155"/>
-      <c r="X16" s="13">
+        <f>G16-R16-Q16-P16</f>
+        <v>65</v>
+      </c>
+      <c r="T16" s="146">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="11">
-        <f>C15+SUM(C16:C16)</f>
+        <f t="shared" ref="C17:I17" si="32">C15+SUM(C16:C16)</f>
         <v>2998</v>
       </c>
       <c r="D17" s="11">
-        <f>D15+SUM(D16:D16)</f>
+        <f t="shared" si="32"/>
         <v>5065</v>
       </c>
       <c r="E17" s="11">
-        <f>E15+SUM(E16:E16)</f>
+        <f t="shared" si="32"/>
         <v>4099</v>
       </c>
       <c r="F17" s="11">
-        <f>F15+SUM(F16:F16)</f>
+        <f t="shared" si="32"/>
         <v>3366</v>
       </c>
       <c r="G17" s="14">
-        <f>G15+SUM(G16:G16)</f>
+        <f t="shared" si="32"/>
         <v>5411</v>
       </c>
       <c r="H17" s="11">
-        <f>H15+SUM(H16:H16)</f>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>31940</v>
       </c>
       <c r="I17" s="11">
-        <f>I15+SUM(I16:I16)</f>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>34410</v>
       </c>
       <c r="L17" s="11">
-        <f>L15+SUM(L16:L16)</f>
-        <v>0</v>
+        <f t="shared" ref="L17:U17" si="33">L15+SUM(L16:L16)</f>
+        <v>629</v>
       </c>
       <c r="M17" s="11">
-        <f>M15+SUM(M16:M16)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>49</v>
       </c>
       <c r="N17" s="11">
-        <f>N15+SUM(N16:N16)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1578</v>
       </c>
       <c r="O17" s="11">
-        <f>O15+SUM(O16:O16)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1110</v>
       </c>
       <c r="P17" s="11">
-        <f>P15+SUM(P16:P16)</f>
-        <v>629</v>
+        <f t="shared" si="33"/>
+        <v>1074</v>
       </c>
       <c r="Q17" s="11">
-        <f>Q15+SUM(Q16:Q16)</f>
-        <v>49</v>
+        <f t="shared" si="33"/>
+        <v>1303</v>
       </c>
       <c r="R17" s="11">
-        <f>R15+SUM(R16:R16)</f>
-        <v>1578</v>
+        <f t="shared" si="33"/>
+        <v>1241</v>
       </c>
       <c r="S17" s="11">
-        <f>S15+SUM(S16:S16)</f>
-        <v>1110</v>
-      </c>
-      <c r="T17" s="11">
-        <f>T15+SUM(T16:T16)</f>
-        <v>1074</v>
-      </c>
-      <c r="U17" s="11">
-        <f>U15+SUM(U16:U16)</f>
-        <v>1303</v>
-      </c>
-      <c r="V17" s="11">
-        <f>V15+SUM(V16:V16)</f>
-        <v>1241</v>
-      </c>
-      <c r="W17" s="156">
-        <f>W15+SUM(W16:W16)</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
-        <f>X15+SUM(X16:X16)</f>
+        <f t="shared" si="33"/>
+        <v>1793</v>
+      </c>
+      <c r="T17" s="148">
+        <f t="shared" si="33"/>
         <v>1209</v>
       </c>
-      <c r="Y17" s="11">
-        <f>Y15+SUM(Y16:Y16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U17" s="14">
+        <f t="shared" si="33"/>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10">
         <v>539</v>
@@ -14630,40 +14749,42 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="L18" s="10">
+        <v>120</v>
+      </c>
+      <c r="M18" s="10">
+        <v>390</v>
+      </c>
+      <c r="N18" s="10">
+        <v>248</v>
+      </c>
+      <c r="O18" s="10">
+        <f>F18-N18-M18-L18</f>
+        <v>189</v>
+      </c>
       <c r="P18" s="10">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="10">
-        <v>390</v>
+        <v>274</v>
       </c>
       <c r="R18" s="10">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="S18" s="10">
-        <f>F18-R18-Q18-P18</f>
-        <v>189</v>
-      </c>
-      <c r="T18" s="10">
-        <v>279</v>
-      </c>
-      <c r="U18" s="10">
-        <v>274</v>
-      </c>
-      <c r="V18" s="10">
-        <v>221</v>
-      </c>
-      <c r="W18" s="155"/>
-      <c r="X18" s="13">
+        <f>G18-R18-Q18-P18</f>
+        <v>391</v>
+      </c>
+      <c r="T18" s="146">
         <v>321</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="13">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11">
         <f>C17-SUM(C18:C18)</f>
@@ -14685,66 +14806,50 @@
         <f>G17-SUM(G18:G18)</f>
         <v>4246</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
       <c r="L19" s="11">
-        <f>L17-SUM(L18:L18)</f>
-        <v>0</v>
+        <f t="shared" ref="L19:U19" si="34">L17-SUM(L18:L18)</f>
+        <v>509</v>
       </c>
       <c r="M19" s="11">
-        <f>M17-SUM(M18:M18)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-341</v>
       </c>
       <c r="N19" s="11">
-        <f>N17-SUM(N18:N18)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1330</v>
       </c>
       <c r="O19" s="11">
-        <f>O17-SUM(O18:O18)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>921</v>
       </c>
       <c r="P19" s="11">
-        <f>P17-SUM(P18:P18)</f>
-        <v>509</v>
+        <f t="shared" si="34"/>
+        <v>795</v>
       </c>
       <c r="Q19" s="11">
-        <f>Q17-SUM(Q18:Q18)</f>
-        <v>-341</v>
+        <f t="shared" si="34"/>
+        <v>1029</v>
       </c>
       <c r="R19" s="11">
-        <f>R17-SUM(R18:R18)</f>
-        <v>1330</v>
+        <f t="shared" si="34"/>
+        <v>1020</v>
       </c>
       <c r="S19" s="11">
-        <f>S17-SUM(S18:S18)</f>
-        <v>921</v>
-      </c>
-      <c r="T19" s="11">
-        <f>T17-SUM(T18:T18)</f>
-        <v>795</v>
-      </c>
-      <c r="U19" s="11">
-        <f>U17-SUM(U18:U18)</f>
-        <v>1029</v>
-      </c>
-      <c r="V19" s="11">
-        <f>V17-SUM(V18:V18)</f>
-        <v>1020</v>
-      </c>
-      <c r="W19" s="156">
-        <f>W17-SUM(W18:W18)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="14">
-        <f>X17-SUM(X18:X18)</f>
+        <f t="shared" si="34"/>
+        <v>1402</v>
+      </c>
+      <c r="T19" s="148">
+        <f t="shared" si="34"/>
         <v>888</v>
       </c>
-      <c r="Y19" s="11">
-        <f>Y17-SUM(Y18:Y18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U19" s="14">
+        <f t="shared" si="34"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -14765,40 +14870,40 @@
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="L20" s="10">
+        <v>1172</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1158</v>
+      </c>
+      <c r="N20" s="10">
+        <v>1157</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1157</v>
+      </c>
       <c r="P20" s="10">
-        <v>1172</v>
+        <v>1134</v>
       </c>
       <c r="Q20" s="10">
-        <v>1158</v>
+        <v>1114</v>
       </c>
       <c r="R20" s="10">
-        <v>1157</v>
+        <v>1098</v>
       </c>
       <c r="S20" s="10">
-        <v>1157</v>
-      </c>
-      <c r="T20" s="10">
-        <v>1134</v>
-      </c>
-      <c r="U20" s="10">
-        <v>1114</v>
-      </c>
-      <c r="V20" s="10">
         <v>1098</v>
       </c>
-      <c r="W20" s="155"/>
-      <c r="X20" s="15">
+      <c r="T20" s="147">
         <v>1072</v>
       </c>
-      <c r="Y20" s="10"/>
-    </row>
-    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="15">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <f>C19/C20</f>
@@ -14816,107 +14921,100 @@
         <f>F19/F20</f>
         <v>2.0889464594127807</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="48">
         <f>G19/G20</f>
         <v>3.8355916892502258</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="L21" s="2" t="e">
-        <f>L19/L20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="2" t="e">
-        <f t="shared" ref="M21:Y21" si="48">M19/M20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
+      <c r="H21" s="49">
+        <v>4.43</v>
+      </c>
+      <c r="I21" s="50">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:U21" si="35">L19/L20</f>
+        <v>0.43430034129692835</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="35"/>
+        <v>-0.29447322970639034</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="35"/>
+        <v>1.1495246326707</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="35"/>
+        <v>0.79602420051858258</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="48"/>
-        <v>0.43430034129692835</v>
+        <f t="shared" si="35"/>
+        <v>0.70105820105820105</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="48"/>
-        <v>-0.29447322970639034</v>
+        <f t="shared" si="35"/>
+        <v>0.92369838420107719</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="48"/>
-        <v>1.1495246326707</v>
+        <f t="shared" si="35"/>
+        <v>0.92896174863387981</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="48"/>
-        <v>0.79602420051858258</v>
-      </c>
-      <c r="T21" s="2">
-        <f t="shared" si="48"/>
-        <v>0.70105820105820105</v>
-      </c>
-      <c r="U21" s="2">
-        <f t="shared" si="48"/>
-        <v>0.92369838420107719</v>
-      </c>
-      <c r="V21" s="2">
-        <f t="shared" si="48"/>
-        <v>0.92896174863387981</v>
-      </c>
-      <c r="W21" s="157" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
+        <v>1.2768670309653916</v>
+      </c>
+      <c r="T21" s="149">
+        <f t="shared" si="35"/>
         <v>0.82835820895522383</v>
       </c>
-      <c r="Y21" s="2" t="e">
-        <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="35">
+        <f t="shared" si="35"/>
+        <v>1.0773638968481376</v>
+      </c>
+      <c r="V21">
+        <v>1.06</v>
+      </c>
+      <c r="W21">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="149">
-        <v>4.3</v>
-      </c>
-      <c r="I22" s="150">
-        <v>4.78</v>
-      </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="152">
+        <v>62</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="123">
+        <v>4.43</v>
+      </c>
+      <c r="I22" s="124">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="125">
         <v>0.99</v>
       </c>
-      <c r="Z22" s="140">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>1.06</v>
+      </c>
+      <c r="W22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <f>1-C10/C5</f>
@@ -14938,64 +15036,58 @@
         <f>1-G10/G5</f>
         <v>0.39585502670383932</v>
       </c>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="L23" s="3" t="e">
-        <f>1-L10/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="3" t="e">
-        <f>1-M10/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="3" t="e">
-        <f>1-N10/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="3" t="e">
-        <f>1-O10/O5</f>
-        <v>#DIV/0!</v>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:W23" si="36">1-L10/L5</f>
+        <v>0.42619157797316054</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="36"/>
+        <v>0.40816926241551577</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="36"/>
+        <v>0.43558282208588961</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="36"/>
+        <v>0.42394690505214683</v>
       </c>
       <c r="P23" s="3">
-        <f>1-P10/P5</f>
-        <v>0.42619157797316054</v>
+        <f t="shared" si="36"/>
+        <v>0.40156250000000004</v>
       </c>
       <c r="Q23" s="3">
-        <f>1-Q10/Q5</f>
-        <v>0.40816926241551577</v>
+        <f t="shared" si="36"/>
+        <v>0.39193083573487031</v>
       </c>
       <c r="R23" s="3">
-        <f>1-R10/R5</f>
-        <v>0.43558282208588961</v>
-      </c>
-      <c r="S23" s="3">
-        <f>1-S10/S5</f>
-        <v>0.42394690505214683</v>
-      </c>
-      <c r="T23" s="3">
-        <f>1-T10/T5</f>
-        <v>0.40156250000000004</v>
-      </c>
-      <c r="U23" s="3">
-        <f>1-U10/U5</f>
-        <v>0.39193083573487031</v>
-      </c>
-      <c r="V23" s="3">
-        <f>1-V10/V5</f>
+        <f t="shared" si="36"/>
         <v>0.39026691830682125</v>
       </c>
-      <c r="W23" s="40" t="e">
-        <f>1-W10/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="6">
-        <f>1-X10/X5</f>
+      <c r="S23" s="40">
+        <f t="shared" si="36"/>
+        <v>0.39957637677547964</v>
+      </c>
+      <c r="T23" s="40">
+        <f t="shared" si="36"/>
         <v>0.39057020392258734</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U23" s="6">
+        <f t="shared" si="36"/>
+        <v>0.40228281547241596</v>
+      </c>
+      <c r="V23" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="W23" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <f>C19/C5</f>
@@ -15017,70 +15109,66 @@
         <f>G19/G5</f>
         <v>0.14262201471230393</v>
       </c>
-      <c r="H24" s="144">
+      <c r="H24" s="121">
         <f>H19/H6</f>
         <v>0</v>
       </c>
-      <c r="I24" s="144">
+      <c r="I24" s="121">
         <f>I19/I6</f>
         <v>0</v>
       </c>
-      <c r="L24" s="4" t="e">
-        <f>L19/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="4" t="e">
-        <f>M19/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="4" t="e">
-        <f>N19/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="4" t="e">
-        <f>O19/O5</f>
-        <v>#DIV/0!</v>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:W24" si="37">L19/L5</f>
+        <v>7.8513034089156261E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="37"/>
+        <v>-5.0102850426094622E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="37"/>
+        <v>0.19427402862985685</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="37"/>
+        <v>0.12474603819585535</v>
       </c>
       <c r="P24" s="4">
-        <f>P19/P5</f>
-        <v>7.8513034089156261E-2</v>
+        <f t="shared" si="37"/>
+        <v>0.11292613636363637</v>
       </c>
       <c r="Q24" s="4">
-        <f>Q19/Q5</f>
-        <v>-5.0102850426094622E-2</v>
+        <f t="shared" si="37"/>
+        <v>0.14121037463976946</v>
       </c>
       <c r="R24" s="4">
-        <f>R19/R5</f>
-        <v>0.19427402862985685</v>
+        <f t="shared" si="37"/>
+        <v>0.13750337018064168</v>
       </c>
       <c r="S24" s="4">
-        <f>S19/S5</f>
-        <v>0.12474603819585535</v>
-      </c>
-      <c r="T24" s="4">
-        <f>T19/T5</f>
-        <v>0.11292613636363637</v>
-      </c>
-      <c r="U24" s="4">
-        <f>U19/U5</f>
-        <v>0.14121037463976946</v>
-      </c>
-      <c r="V24" s="4">
-        <f>V19/V5</f>
-        <v>0.13750337018064168</v>
-      </c>
-      <c r="W24" s="159" t="e">
-        <f>W19/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="7">
-        <f>X19/X5</f>
+        <f t="shared" si="37"/>
+        <v>0.17468228258160975</v>
+      </c>
+      <c r="T24" s="151">
+        <f t="shared" si="37"/>
         <v>0.11533965450058449</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U24" s="7">
+        <f t="shared" si="37"/>
+        <v>0.14305643627140138</v>
+      </c>
+      <c r="V24" s="151">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="151">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -15099,66 +15187,54 @@
         <f>G5/F5-1</f>
         <v>8.1873682680427384E-2</v>
       </c>
-      <c r="H25" s="118">
+      <c r="H25" s="117">
         <f>H6/G5-1</f>
-        <v>7.1848443115783756E-2</v>
-      </c>
-      <c r="I25" s="118">
+        <v>7.2856135165093594E-2</v>
+      </c>
+      <c r="I25" s="117">
         <f>I6/H6-1</f>
-        <v>8.0852397367596307E-2</v>
+        <v>7.7332498434564911E-2</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4" t="e">
-        <f>P5/L5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="4" t="e">
-        <f>Q5/M5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="4" t="e">
-        <f>R5/N5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="4" t="e">
-        <f>S5/O5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4">
-        <f>T5/P5-1</f>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25:T25" si="38">P5/L5-1</f>
         <v>8.5917013728212144E-2</v>
       </c>
-      <c r="U25" s="4">
+      <c r="Q25" s="4">
+        <f t="shared" si="38"/>
+        <v>7.0672935645019086E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="38"/>
+        <v>8.3552439380660148E-2</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="38"/>
+        <v>8.7091968034674228E-2</v>
+      </c>
+      <c r="T25" s="151">
+        <f t="shared" si="38"/>
+        <v>9.3607954545454453E-2</v>
+      </c>
+      <c r="U25" s="155">
         <f>U5/Q5-1</f>
-        <v>7.0672935645019086E-2</v>
-      </c>
-      <c r="V25" s="4">
-        <f>V5/R5-1</f>
-        <v>8.3552439380660148E-2</v>
-      </c>
-      <c r="W25" s="159">
-        <f>W5/S5-1</f>
-        <v>-1</v>
-      </c>
-      <c r="X25" s="161">
-        <f>X5/T5-1</f>
-        <v>9.3607954545454453E-2</v>
-      </c>
-      <c r="Y25" s="37">
-        <f>Y6/U5-1</f>
-        <v>6.9027034444901769E-2</v>
-      </c>
-      <c r="Z25" s="37">
-        <f>Z6/V5-1</f>
-        <v>7.1717444055001245E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+        <v>8.2063949499108002E-2</v>
+      </c>
+      <c r="V25" s="37">
+        <f>V6/R5-1</f>
+        <v>6.228093825829073E-2</v>
+      </c>
+      <c r="W25" s="37">
+        <f>W6/S5-1</f>
+        <v>5.6566159980064867E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4">
         <f>C11/C5</f>
@@ -15180,64 +15256,60 @@
         <f>G11/G5</f>
         <v>6.0763830573376774E-2</v>
       </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="L26" s="4" t="e">
-        <f>L11/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="4" t="e">
-        <f>M11/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4" t="e">
-        <f>N11/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="4" t="e">
-        <f>O11/O5</f>
-        <v>#DIV/0!</v>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:T26" si="39">L11/L5</f>
+        <v>9.1624248033317909E-2</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="39"/>
+        <v>8.7422862180429037E-2</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="39"/>
+        <v>7.9462459830557997E-2</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="39"/>
+        <v>7.0973858864960049E-2</v>
       </c>
       <c r="P26" s="4">
-        <f>P11/P5</f>
-        <v>9.1624248033317909E-2</v>
+        <f t="shared" si="39"/>
+        <v>6.1931818181818185E-2</v>
       </c>
       <c r="Q26" s="4">
-        <f>Q11/Q5</f>
-        <v>8.7422862180429037E-2</v>
+        <f t="shared" si="39"/>
+        <v>6.3812268423219437E-2</v>
       </c>
       <c r="R26" s="4">
-        <f>R11/R5</f>
-        <v>7.9462459830557997E-2</v>
+        <f t="shared" si="39"/>
+        <v>5.9584793744944728E-2</v>
       </c>
       <c r="S26" s="4">
-        <f>S11/S5</f>
-        <v>7.0973858864960049E-2</v>
-      </c>
-      <c r="T26" s="4">
-        <f>T11/T5</f>
-        <v>6.1931818181818185E-2</v>
-      </c>
-      <c r="U26" s="4">
-        <f>U11/U5</f>
-        <v>6.3812268423219437E-2</v>
-      </c>
-      <c r="V26" s="4">
-        <f>V11/V5</f>
-        <v>5.9584793744944728E-2</v>
-      </c>
-      <c r="W26" s="159" t="e">
-        <f>W11/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="7">
-        <f>X11/X5</f>
+        <f t="shared" si="39"/>
+        <v>5.8061300772489409E-2</v>
+      </c>
+      <c r="T26" s="151">
+        <f t="shared" si="39"/>
         <v>5.4682426289128457E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U26" s="7">
+        <f t="shared" ref="U26:W26" si="40">U11/U5</f>
+        <v>5.6563094483195943E-2</v>
+      </c>
+      <c r="V26" s="151">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="151">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4">
         <f>C12/C5</f>
@@ -15259,64 +15331,60 @@
         <f>G12/G5</f>
         <v>9.9862282086594339E-2</v>
       </c>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="L27" s="4" t="e">
-        <f>L12/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="4" t="e">
-        <f>M12/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4" t="e">
-        <f>N12/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="4" t="e">
-        <f>O12/O5</f>
-        <v>#DIV/0!</v>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="L27" s="4">
+        <f t="shared" ref="L27:T27" si="41">L12/L5</f>
+        <v>0.12571340428813821</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="41"/>
+        <v>0.1197472818101675</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="41"/>
+        <v>0.11700262927256792</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="41"/>
+        <v>0.11133685493701748</v>
       </c>
       <c r="P27" s="4">
-        <f>P12/P5</f>
-        <v>0.12571340428813821</v>
+        <f t="shared" si="41"/>
+        <v>0.10241477272727273</v>
       </c>
       <c r="Q27" s="4">
-        <f>Q12/Q5</f>
-        <v>0.1197472818101675</v>
+        <f t="shared" si="41"/>
+        <v>0.10196239879236997</v>
       </c>
       <c r="R27" s="4">
-        <f>R12/R5</f>
-        <v>0.11700262927256792</v>
+        <f t="shared" si="41"/>
+        <v>9.9622539768131568E-2</v>
       </c>
       <c r="S27" s="4">
-        <f>S12/S5</f>
-        <v>0.11133685493701748</v>
-      </c>
-      <c r="T27" s="4">
-        <f>T12/T5</f>
-        <v>0.10241477272727273</v>
-      </c>
-      <c r="U27" s="4">
-        <f>U12/U5</f>
-        <v>0.10196239879236997</v>
-      </c>
-      <c r="V27" s="4">
-        <f>V12/V5</f>
-        <v>9.9622539768131568E-2</v>
-      </c>
-      <c r="W27" s="159" t="e">
-        <f>W12/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="7">
-        <f>X12/X5</f>
+        <f t="shared" si="41"/>
+        <v>9.5938200847246455E-2</v>
+      </c>
+      <c r="T27" s="151">
+        <f t="shared" si="41"/>
         <v>9.6376152747110019E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U27" s="7">
+        <f t="shared" ref="U27:W27" si="42">U12/U5</f>
+        <v>9.105897273303741E-2</v>
+      </c>
+      <c r="V27" s="151">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="151">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4">
         <f>C13/C5</f>
@@ -15327,79 +15395,71 @@
         <v>9.6485503868742425E-2</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" ref="E28:G28" si="49">E13/E5</f>
+        <f t="shared" ref="E28:G28" si="43">E13/E5</f>
         <v>8.3323479563280914E-2</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>7.6277345737335564E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>6.9161264317624538E-2</v>
       </c>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="L28" s="4" t="e">
-        <f t="shared" ref="L28:Y28" si="50">L13/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:T28" si="44">L13/L5</f>
+        <v>9.3629492518895574E-2</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="44"/>
+        <v>7.5521598589479877E-2</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="44"/>
+        <v>6.7630733274905055E-2</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="44"/>
+        <v>6.9754842205065698E-2</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="50"/>
-        <v>9.3629492518895574E-2</v>
+        <f t="shared" si="44"/>
+        <v>7.2017045454545459E-2</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="50"/>
-        <v>7.5521598589479877E-2</v>
+        <f t="shared" si="44"/>
+        <v>6.7380266227528476E-2</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="50"/>
-        <v>6.7630733274905055E-2</v>
+        <f t="shared" si="44"/>
+        <v>6.8347263413318954E-2</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="50"/>
-        <v>6.9754842205065698E-2</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="50"/>
-        <v>7.2017045454545459E-2</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="50"/>
-        <v>6.7380266227528476E-2</v>
-      </c>
-      <c r="V28" s="4">
-        <f t="shared" si="50"/>
-        <v>6.8347263413318954E-2</v>
-      </c>
-      <c r="W28" s="159" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
+        <v>6.902566658360329E-2</v>
+      </c>
+      <c r="T28" s="151">
+        <f t="shared" si="44"/>
         <v>6.0267567216521628E-2</v>
       </c>
-      <c r="Y28" s="4" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U28" s="7">
+        <f t="shared" ref="U28:W28" si="45">U13/U5</f>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="V28" s="151">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="151">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -15420,137 +15480,125 @@
       </c>
       <c r="H29" s="3">
         <f>H22/G21-1</f>
-        <v>0.12107866227037212</v>
+        <v>0.15497173810645304</v>
       </c>
       <c r="I29" s="3">
         <f>I22/H22-1</f>
-        <v>0.1116279069767443</v>
+        <v>9.4808126410835136E-2</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4" t="e">
-        <f>P19/L19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f>Q19/M19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f>R19/N19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f>S19/O19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4">
-        <f>T19/P19-1</f>
+      <c r="P29" s="4">
+        <f t="shared" ref="P29:T29" si="46">P19/L19-1</f>
         <v>0.56188605108055012</v>
       </c>
-      <c r="U29" s="4">
-        <f>U19/Q19-1</f>
+      <c r="Q29" s="4">
+        <f t="shared" si="46"/>
         <v>-4.0175953079178885</v>
       </c>
-      <c r="V29" s="4">
-        <f>V19/R19-1</f>
+      <c r="R29" s="4">
+        <f t="shared" si="46"/>
         <v>-0.23308270676691734</v>
       </c>
-      <c r="W29" s="159">
-        <f>W19/S19-1</f>
+      <c r="S29" s="4">
+        <f t="shared" si="46"/>
+        <v>0.5222584147665581</v>
+      </c>
+      <c r="T29" s="151">
+        <f t="shared" si="46"/>
+        <v>0.11698113207547167</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" ref="U29" si="47">U19/Q19-1</f>
+        <v>9.6209912536443065E-2</v>
+      </c>
+      <c r="V29" s="151">
+        <f t="shared" ref="V29" si="48">V19/R19-1</f>
         <v>-1</v>
       </c>
-      <c r="X29" s="7">
-        <f>X19/T19-1</f>
-        <v>0.11698113207547167</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="151">
+        <f t="shared" ref="W29" si="49">W19/S19-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11">
         <f>C33+C34-C52</f>
         <v>0</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" ref="D32:G32" si="51">D33+D34-D52</f>
+        <f t="shared" ref="D32:G32" si="50">D33+D34-D52</f>
         <v>4144</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1451</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>451</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>4384</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" ref="L32" si="52">L33+L34-L52</f>
+        <f t="shared" ref="L32" si="51">L33+L34-L52</f>
         <v>0</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" ref="M32" si="53">M33+M34-M52</f>
+        <f t="shared" ref="M32" si="52">M33+M34-M52</f>
         <v>0</v>
       </c>
       <c r="N32" s="11">
-        <f t="shared" ref="N32" si="54">N33+N34-N52</f>
+        <f t="shared" ref="N32" si="53">N33+N34-N52</f>
         <v>0</v>
       </c>
       <c r="O32" s="11">
-        <f t="shared" ref="O32" si="55">O33+O34-O52</f>
+        <f t="shared" ref="O32" si="54">O33+O34-O52</f>
+        <v>451</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" ref="P32" si="55">P33+P34-P52</f>
+        <v>179</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" ref="Q32" si="56">Q33+Q34-Q52</f>
+        <v>-647</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" ref="R32" si="57">R33+R34-R52</f>
+        <v>907</v>
+      </c>
+      <c r="S32" s="11">
+        <f t="shared" ref="S32" si="58">S33+S34-S52</f>
+        <v>4384</v>
+      </c>
+      <c r="T32" s="148">
+        <f>T33+T34-T52</f>
+        <v>4635</v>
+      </c>
+      <c r="U32" s="14">
+        <f t="shared" ref="U32:W32" si="59">U33+U34-U52</f>
+        <v>3889</v>
+      </c>
+      <c r="V32" s="148">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="P32" s="11">
-        <f t="shared" ref="P32" si="56">P33+P34-P52</f>
+      <c r="W32" s="148">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="11">
-        <f t="shared" ref="Q32" si="57">Q33+Q34-Q52</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="11">
-        <f t="shared" ref="R32" si="58">R33+R34-R52</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="11">
-        <f t="shared" ref="S32" si="59">S33+S34-S52</f>
-        <v>451</v>
-      </c>
-      <c r="T32" s="11">
-        <f t="shared" ref="T32" si="60">T33+T34-T52</f>
-        <v>179</v>
-      </c>
-      <c r="U32" s="11">
-        <f t="shared" ref="U32" si="61">U33+U34-U52</f>
-        <v>-647</v>
-      </c>
-      <c r="V32" s="11">
-        <f t="shared" ref="V32" si="62">V33+V34-V52</f>
-        <v>907</v>
-      </c>
-      <c r="W32" s="156">
-        <f t="shared" ref="W32" si="63">W33+W34-W52</f>
-        <v>4384</v>
-      </c>
-      <c r="X32" s="14">
-        <f>X33+X34-X52</f>
-        <v>4635</v>
-      </c>
-      <c r="Y32" s="11">
-        <f t="shared" ref="Y32" si="64">Y33+Y34-Y52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
@@ -15568,34 +15616,35 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10">
+      <c r="O33" s="10">
         <f>F33</f>
         <v>7776</v>
       </c>
-      <c r="T33" s="10">
+      <c r="P33" s="10">
         <v>7101</v>
       </c>
-      <c r="U33" s="10">
+      <c r="Q33" s="10">
         <v>5504</v>
       </c>
-      <c r="V33" s="10">
+      <c r="R33" s="10">
         <v>6816</v>
       </c>
-      <c r="W33" s="155">
+      <c r="S33" s="10">
         <f>G33</f>
         <v>9081</v>
       </c>
-      <c r="X33" s="15">
+      <c r="T33" s="147">
         <v>9693</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U33" s="15">
+        <v>7701</v>
+      </c>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -15613,34 +15662,35 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="O34" s="10">
+        <f>F34</f>
+        <v>3092</v>
+      </c>
+      <c r="P34" s="10">
+        <v>3559</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>4398</v>
+      </c>
+      <c r="R34" s="10">
+        <v>4731</v>
+      </c>
       <c r="S34" s="10">
-        <f t="shared" ref="S34:S39" si="65">F34</f>
-        <v>3092</v>
-      </c>
-      <c r="T34" s="10">
-        <v>3559</v>
-      </c>
-      <c r="U34" s="10">
-        <v>4398</v>
-      </c>
-      <c r="V34" s="10">
-        <v>4731</v>
-      </c>
-      <c r="W34" s="155">
-        <f t="shared" ref="W34:W39" si="66">G34</f>
+        <f>G34</f>
         <v>4979</v>
       </c>
-      <c r="X34" s="15">
+      <c r="T34" s="147">
         <v>4625</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U34" s="15">
+        <v>5915</v>
+      </c>
+      <c r="V34" s="147"/>
+      <c r="W34" s="147"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
@@ -15658,34 +15708,35 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="O35" s="10">
+        <f>F35</f>
+        <v>963</v>
+      </c>
+      <c r="P35" s="10">
+        <v>967</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>928</v>
+      </c>
+      <c r="R35" s="10">
+        <v>988</v>
+      </c>
       <c r="S35" s="10">
-        <f t="shared" si="65"/>
-        <v>963</v>
-      </c>
-      <c r="T35" s="10">
-        <v>967</v>
-      </c>
-      <c r="U35" s="10">
-        <v>928</v>
-      </c>
-      <c r="V35" s="10">
-        <v>988</v>
-      </c>
-      <c r="W35" s="155">
-        <f t="shared" si="66"/>
+        <f>G35</f>
         <v>1069</v>
       </c>
-      <c r="X35" s="15">
+      <c r="T35" s="147">
         <v>1108</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U35" s="15">
+        <v>987</v>
+      </c>
+      <c r="V35" s="147"/>
+      <c r="W35" s="147"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -15697,32 +15748,33 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="O36" s="10">
+        <f>F36</f>
+        <v>0</v>
+      </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="Q36" s="10">
+        <v>1903</v>
+      </c>
+      <c r="R36" s="10">
+        <v>2165</v>
+      </c>
       <c r="S36" s="10">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10">
-        <v>1903</v>
-      </c>
-      <c r="V36" s="10">
-        <v>2165</v>
-      </c>
-      <c r="W36" s="155">
-        <f t="shared" si="66"/>
+        <f>G36</f>
         <v>563</v>
       </c>
-      <c r="X36" s="15">
+      <c r="T36" s="147">
         <v>307</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U36" s="15">
+        <v>369</v>
+      </c>
+      <c r="V36" s="147"/>
+      <c r="W36" s="147"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -15740,34 +15792,35 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="10">
+        <f>F37</f>
+        <v>7431</v>
+      </c>
+      <c r="P37" s="10">
+        <v>7495</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>5547</v>
+      </c>
+      <c r="R37" s="10">
+        <v>5066</v>
+      </c>
       <c r="S37" s="10">
-        <f t="shared" si="65"/>
-        <v>7431</v>
-      </c>
-      <c r="T37" s="10">
-        <v>7495</v>
-      </c>
-      <c r="U37" s="10">
-        <v>5547</v>
-      </c>
-      <c r="V37" s="10">
-        <v>5066</v>
-      </c>
-      <c r="W37" s="155">
-        <f t="shared" si="66"/>
+        <f>G37</f>
         <v>5433</v>
       </c>
-      <c r="X37" s="15">
+      <c r="T37" s="147">
         <v>5202</v>
       </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U37" s="15">
+        <v>5319</v>
+      </c>
+      <c r="V37" s="147"/>
+      <c r="W37" s="147"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -15785,34 +15838,35 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="O38" s="10">
+        <f>F38</f>
+        <v>36264</v>
+      </c>
+      <c r="P38" s="10">
+        <v>35276</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>33643</v>
+      </c>
+      <c r="R38" s="10">
+        <v>34641</v>
+      </c>
       <c r="S38" s="10">
-        <f t="shared" si="65"/>
-        <v>36264</v>
-      </c>
-      <c r="T38" s="10">
-        <v>35276</v>
-      </c>
-      <c r="U38" s="10">
-        <v>33643</v>
-      </c>
-      <c r="V38" s="10">
-        <v>34641</v>
-      </c>
-      <c r="W38" s="155">
-        <f t="shared" si="66"/>
+        <f>G38</f>
         <v>38935</v>
       </c>
-      <c r="X38" s="15">
+      <c r="T38" s="147">
         <v>38353</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U38" s="15">
+        <v>38727</v>
+      </c>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -15830,41 +15884,42 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+      <c r="O39" s="10">
+        <f>F39</f>
+        <v>1898</v>
+      </c>
+      <c r="P39" s="10">
+        <v>2162</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>2202</v>
+      </c>
+      <c r="R39" s="10">
+        <v>2228</v>
+      </c>
       <c r="S39" s="10">
-        <f t="shared" si="65"/>
-        <v>1898</v>
-      </c>
-      <c r="T39" s="10">
-        <v>2162</v>
-      </c>
-      <c r="U39" s="10">
-        <v>2202</v>
-      </c>
-      <c r="V39" s="10">
-        <v>2228</v>
-      </c>
-      <c r="W39" s="155">
-        <f t="shared" si="66"/>
+        <f>G39</f>
         <v>2509</v>
       </c>
-      <c r="X39" s="15">
+      <c r="T39" s="147">
         <v>4418</v>
       </c>
-    </row>
-    <row r="40" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="15">
+        <v>3954</v>
+      </c>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+    </row>
+    <row r="40" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40:D40" si="67">SUM(C33:C39)</f>
+        <f t="shared" ref="C40:D40" si="60">SUM(C33:C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>50995</v>
       </c>
       <c r="E40" s="11">
@@ -15872,73 +15927,65 @@
         <v>52574</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" ref="F40:G40" si="68">SUM(F33:F39)</f>
+        <f t="shared" ref="F40:G40" si="61">SUM(F33:F39)</f>
         <v>57424</v>
       </c>
       <c r="G40" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="61"/>
         <v>62569</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40:Y40" si="69">SUM(L33:L39)</f>
+        <f t="shared" ref="L40:T40" si="62">SUM(L33:L39)</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="62"/>
+        <v>57424</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="62"/>
+        <v>56560</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" si="62"/>
+        <v>54125</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" si="62"/>
+        <v>56635</v>
+      </c>
+      <c r="S40" s="11">
+        <f t="shared" si="62"/>
+        <v>62569</v>
+      </c>
+      <c r="T40" s="148">
+        <f t="shared" si="62"/>
+        <v>63706</v>
+      </c>
+      <c r="U40" s="14">
+        <f t="shared" ref="U40:W40" si="63">SUM(U33:U39)</f>
+        <v>62972</v>
+      </c>
+      <c r="V40" s="148">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="P40" s="11">
-        <f t="shared" si="69"/>
+      <c r="W40" s="148">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" si="69"/>
-        <v>57424</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="69"/>
-        <v>56560</v>
-      </c>
-      <c r="U40" s="11">
-        <f t="shared" si="69"/>
-        <v>54125</v>
-      </c>
-      <c r="V40" s="11">
-        <f t="shared" si="69"/>
-        <v>56635</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" si="69"/>
-        <v>62569</v>
-      </c>
-      <c r="X40" s="14">
-        <f t="shared" si="69"/>
-        <v>63706</v>
-      </c>
-      <c r="Y40" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -15956,34 +16003,35 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="O41" s="10">
+        <f>F41</f>
+        <v>5018</v>
+      </c>
+      <c r="P41" s="10">
+        <v>4632</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>4543</v>
+      </c>
+      <c r="R41" s="10">
+        <v>3855</v>
+      </c>
       <c r="S41" s="10">
-        <f t="shared" ref="S41:S45" si="70">F41</f>
-        <v>5018</v>
-      </c>
-      <c r="T41" s="10">
-        <v>4632</v>
-      </c>
-      <c r="U41" s="10">
-        <v>4543</v>
-      </c>
-      <c r="V41" s="10">
-        <v>3855</v>
-      </c>
-      <c r="W41" s="155">
-        <f t="shared" ref="W41:W45" si="71">G41</f>
+        <f>G41</f>
         <v>3273</v>
       </c>
-      <c r="X41" s="15">
+      <c r="T41" s="147">
         <v>3409</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U41" s="15">
+        <v>4653</v>
+      </c>
+      <c r="V41" s="147"/>
+      <c r="W41" s="147"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -16001,34 +16049,35 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="O42" s="10">
+        <f>F42</f>
+        <v>1730</v>
+      </c>
+      <c r="P42" s="10">
+        <v>1633</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>1589</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1529</v>
+      </c>
       <c r="S42" s="10">
-        <f t="shared" si="70"/>
-        <v>1730</v>
-      </c>
-      <c r="T42" s="10">
-        <v>1633</v>
-      </c>
-      <c r="U42" s="10">
-        <v>1589</v>
-      </c>
-      <c r="V42" s="10">
-        <v>1529</v>
-      </c>
-      <c r="W42" s="155">
-        <f t="shared" si="71"/>
+        <f>G42</f>
         <v>1488</v>
       </c>
-      <c r="X42" s="15">
+      <c r="T42" s="147">
         <v>1426</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U42" s="15">
+        <v>1459</v>
+      </c>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -16046,34 +16095,35 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
+      <c r="O43" s="10">
+        <f>F43</f>
+        <v>11209</v>
+      </c>
+      <c r="P43" s="10">
+        <v>11195</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>11067</v>
+      </c>
+      <c r="R43" s="10">
+        <v>10935</v>
+      </c>
       <c r="S43" s="10">
-        <f t="shared" si="70"/>
-        <v>11209</v>
-      </c>
-      <c r="T43" s="10">
-        <v>11195</v>
-      </c>
-      <c r="U43" s="10">
-        <v>11067</v>
-      </c>
-      <c r="V43" s="10">
-        <v>10935</v>
-      </c>
-      <c r="W43" s="155">
-        <f t="shared" si="71"/>
+        <f>G43</f>
         <v>11026</v>
       </c>
-      <c r="X43" s="15">
+      <c r="T43" s="147">
         <v>10916</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U43" s="15">
+        <v>10816</v>
+      </c>
+      <c r="V43" s="147"/>
+      <c r="W43" s="147"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -16091,34 +16141,35 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
+      <c r="O44" s="10">
+        <f>F44</f>
+        <v>788</v>
+      </c>
+      <c r="P44" s="10">
+        <v>730</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>640</v>
+      </c>
+      <c r="R44" s="10">
+        <v>564</v>
+      </c>
       <c r="S44" s="10">
-        <f t="shared" si="70"/>
-        <v>788</v>
-      </c>
-      <c r="T44" s="10">
-        <v>730</v>
-      </c>
-      <c r="U44" s="10">
-        <v>640</v>
-      </c>
-      <c r="V44" s="10">
-        <v>564</v>
-      </c>
-      <c r="W44" s="155">
-        <f t="shared" si="71"/>
+        <f>G44</f>
         <v>537</v>
       </c>
-      <c r="X44" s="15">
+      <c r="T44" s="147">
         <v>465</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="15">
+        <v>403</v>
+      </c>
+      <c r="V44" s="147"/>
+      <c r="W44" s="147"/>
+    </row>
+    <row r="45" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -16136,34 +16187,35 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
+      <c r="O45" s="10">
+        <f>F45</f>
+        <v>2455</v>
+      </c>
+      <c r="P45" s="10">
+        <v>2436</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>2615</v>
+      </c>
+      <c r="R45" s="10">
+        <v>2922</v>
+      </c>
       <c r="S45" s="10">
-        <f t="shared" si="70"/>
-        <v>2455</v>
-      </c>
-      <c r="T45" s="10">
-        <v>2436</v>
-      </c>
-      <c r="U45" s="10">
-        <v>2615</v>
-      </c>
-      <c r="V45" s="10">
-        <v>2922</v>
-      </c>
-      <c r="W45" s="155">
-        <f t="shared" si="71"/>
+        <f>G45</f>
         <v>3273</v>
       </c>
-      <c r="X45" s="15">
+      <c r="T45" s="147">
         <v>3425</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U45" s="15">
+        <v>3713</v>
+      </c>
+      <c r="V45" s="147"/>
+      <c r="W45" s="147"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="11">
         <f>SUM(C40:C45)</f>
@@ -16186,65 +16238,57 @@
         <v>82166</v>
       </c>
       <c r="L46" s="11">
-        <f>SUM(L40:L45)</f>
+        <f t="shared" ref="L46:R46" si="64">SUM(L40:L45)</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f>SUM(M40:M45)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f>SUM(N40:N45)</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f>SUM(O40:O45)</f>
+        <f t="shared" si="64"/>
+        <v>78624</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="64"/>
+        <v>77186</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="64"/>
+        <v>74579</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="64"/>
+        <v>76440</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" ref="S46:T46" si="65">SUM(S40:S45)</f>
+        <v>82166</v>
+      </c>
+      <c r="T46" s="148">
+        <f t="shared" si="65"/>
+        <v>83347</v>
+      </c>
+      <c r="U46" s="14">
+        <f t="shared" ref="U46:W46" si="66">SUM(U40:U45)</f>
+        <v>84016</v>
+      </c>
+      <c r="V46" s="148">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="P46" s="11">
-        <f>SUM(P40:P45)</f>
+      <c r="W46" s="148">
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="11">
-        <f>SUM(Q40:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="11">
-        <f>SUM(R40:R45)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="11">
-        <f>SUM(S40:S45)</f>
-        <v>78624</v>
-      </c>
-      <c r="T46" s="11">
-        <f>SUM(T40:T45)</f>
-        <v>77186</v>
-      </c>
-      <c r="U46" s="11">
-        <f>SUM(U40:U45)</f>
-        <v>74579</v>
-      </c>
-      <c r="V46" s="11">
-        <f>SUM(V40:V45)</f>
-        <v>76440</v>
-      </c>
-      <c r="W46" s="11">
-        <f t="shared" ref="W46:Y46" si="72">SUM(W40:W45)</f>
-        <v>82166</v>
-      </c>
-      <c r="X46" s="14">
-        <f t="shared" si="72"/>
-        <v>83347</v>
-      </c>
-      <c r="Y46" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -16262,35 +16306,35 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="O47" s="10">
+        <f>F47</f>
+        <v>126</v>
+      </c>
+      <c r="P47" s="10">
+        <v>142</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>137</v>
+      </c>
+      <c r="R47" s="10">
+        <v>131</v>
+      </c>
       <c r="S47" s="10">
-        <f t="shared" ref="S47:S49" si="73">F47</f>
-        <v>126</v>
-      </c>
-      <c r="T47" s="10">
-        <v>142</v>
-      </c>
-      <c r="U47" s="10">
-        <v>137</v>
-      </c>
-      <c r="V47" s="10">
-        <v>131</v>
-      </c>
-      <c r="W47" s="155">
-        <f t="shared" ref="W47:W49" si="74">G47</f>
+        <f>G47</f>
         <v>139</v>
       </c>
-      <c r="X47" s="15">
+      <c r="T47" s="147">
         <v>108</v>
       </c>
-      <c r="Y47" s="10"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U47" s="15">
+        <v>133</v>
+      </c>
+      <c r="V47" s="147"/>
+      <c r="W47" s="147"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -16308,35 +16352,35 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
+      <c r="O48" s="10">
+        <f>F48</f>
+        <v>40014</v>
+      </c>
+      <c r="P48" s="10">
+        <v>39026</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>37393</v>
+      </c>
+      <c r="R48" s="10">
+        <v>38641</v>
+      </c>
       <c r="S48" s="10">
-        <f t="shared" si="73"/>
-        <v>40014</v>
-      </c>
-      <c r="T48" s="10">
-        <v>39026</v>
-      </c>
-      <c r="U48" s="10">
-        <v>37393</v>
-      </c>
-      <c r="V48" s="10">
-        <v>38641</v>
-      </c>
-      <c r="W48" s="155">
-        <f t="shared" si="74"/>
+        <f>G48</f>
         <v>41935</v>
       </c>
-      <c r="X48" s="15">
+      <c r="T48" s="147">
         <v>41353</v>
       </c>
-      <c r="Y48" s="10"/>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U48" s="15">
+        <v>41727</v>
+      </c>
+      <c r="V48" s="147"/>
+      <c r="W48" s="147"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -16356,38 +16400,38 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10">
-        <f t="shared" si="73"/>
+      <c r="O49" s="10">
+        <f>F49</f>
         <v>4868</v>
       </c>
-      <c r="T49" s="10">
+      <c r="P49" s="10">
         <f>4164+577</f>
         <v>4741</v>
       </c>
-      <c r="U49" s="10">
+      <c r="Q49" s="10">
         <f>3433+791</f>
         <v>4224</v>
       </c>
-      <c r="V49" s="10">
+      <c r="R49" s="10">
         <f>3533+1137</f>
         <v>4670</v>
       </c>
-      <c r="W49" s="155">
-        <f t="shared" si="74"/>
+      <c r="S49" s="10">
+        <f>G49</f>
         <v>6392</v>
       </c>
-      <c r="X49" s="15">
+      <c r="T49" s="147">
         <v>8385</v>
       </c>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="15">
+        <v>8853</v>
+      </c>
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+    </row>
+    <row r="50" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C50" s="11">
         <f>SUM(C47:C49)</f>
@@ -16410,65 +16454,57 @@
         <v>48466</v>
       </c>
       <c r="L50" s="11">
-        <f>SUM(L47:L49)</f>
+        <f t="shared" ref="L50:R50" si="67">SUM(L47:L49)</f>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f>SUM(M47:M49)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f>SUM(N47:N49)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f>SUM(O47:O49)</f>
+        <f t="shared" si="67"/>
+        <v>45008</v>
+      </c>
+      <c r="P50" s="11">
+        <f t="shared" si="67"/>
+        <v>43909</v>
+      </c>
+      <c r="Q50" s="11">
+        <f t="shared" si="67"/>
+        <v>41754</v>
+      </c>
+      <c r="R50" s="11">
+        <f t="shared" si="67"/>
+        <v>43442</v>
+      </c>
+      <c r="S50" s="11">
+        <f t="shared" ref="S50:T50" si="68">SUM(S47:S49)</f>
+        <v>48466</v>
+      </c>
+      <c r="T50" s="148">
+        <f t="shared" si="68"/>
+        <v>49846</v>
+      </c>
+      <c r="U50" s="14">
+        <f t="shared" ref="U50:W50" si="69">SUM(U47:U49)</f>
+        <v>50713</v>
+      </c>
+      <c r="V50" s="148">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="P50" s="11">
-        <f>SUM(P47:P49)</f>
+      <c r="W50" s="148">
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="11">
-        <f>SUM(Q47:Q49)</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="11">
-        <f>SUM(R47:R49)</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="11">
-        <f>SUM(S47:S49)</f>
-        <v>45008</v>
-      </c>
-      <c r="T50" s="11">
-        <f>SUM(T47:T49)</f>
-        <v>43909</v>
-      </c>
-      <c r="U50" s="11">
-        <f>SUM(U47:U49)</f>
-        <v>41754</v>
-      </c>
-      <c r="V50" s="11">
-        <f>SUM(V47:V49)</f>
-        <v>43442</v>
-      </c>
-      <c r="W50" s="11">
-        <f t="shared" ref="W50:Y50" si="75">SUM(W47:W49)</f>
-        <v>48466</v>
-      </c>
-      <c r="X50" s="14">
-        <f t="shared" si="75"/>
-        <v>49846</v>
-      </c>
-      <c r="Y50" s="11">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10">
@@ -16486,35 +16522,35 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
+      <c r="O51" s="10">
+        <f>F51</f>
+        <v>2925</v>
+      </c>
+      <c r="P51" s="10">
+        <v>2938</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>2615</v>
+      </c>
+      <c r="R51" s="10">
+        <v>2618</v>
+      </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:S52" si="76">F51</f>
-        <v>2925</v>
-      </c>
-      <c r="T51" s="10">
-        <v>2938</v>
-      </c>
-      <c r="U51" s="10">
-        <v>2615</v>
-      </c>
-      <c r="V51" s="10">
-        <v>2618</v>
-      </c>
-      <c r="W51" s="155">
-        <f t="shared" ref="W51:W52" si="77">G51</f>
+        <f>G51</f>
         <v>2973</v>
       </c>
-      <c r="X51" s="15">
+      <c r="T51" s="147">
         <v>3116</v>
       </c>
-      <c r="Y51" s="10"/>
-    </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U51" s="15">
+        <v>2954</v>
+      </c>
+      <c r="V51" s="147"/>
+      <c r="W51" s="147"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
@@ -16532,35 +16568,35 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
+      <c r="O52" s="10">
+        <f>F52</f>
+        <v>10417</v>
+      </c>
+      <c r="P52" s="10">
+        <v>10481</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>10549</v>
+      </c>
+      <c r="R52" s="10">
+        <v>10640</v>
+      </c>
       <c r="S52" s="10">
-        <f t="shared" si="76"/>
-        <v>10417</v>
-      </c>
-      <c r="T52" s="10">
-        <v>10481</v>
-      </c>
-      <c r="U52" s="10">
-        <v>10549</v>
-      </c>
-      <c r="V52" s="10">
-        <v>10640</v>
-      </c>
-      <c r="W52" s="155">
-        <f t="shared" si="77"/>
+        <f>G52</f>
         <v>9676</v>
       </c>
-      <c r="X52" s="15">
+      <c r="T52" s="147">
         <v>9683</v>
       </c>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U52" s="15">
+        <v>9727</v>
+      </c>
+      <c r="V52" s="147"/>
+      <c r="W52" s="147"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53" s="11">
         <f>SUM(C50:C52)</f>
@@ -16583,65 +16619,57 @@
         <v>61115</v>
       </c>
       <c r="L53" s="11">
-        <f>SUM(L50:L52)</f>
+        <f t="shared" ref="L53:R53" si="70">SUM(L50:L52)</f>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f>SUM(M50:M52)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N53" s="11">
-        <f>SUM(N50:N52)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O53" s="11">
-        <f>SUM(O50:O52)</f>
+        <f t="shared" si="70"/>
+        <v>58350</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="70"/>
+        <v>57328</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" si="70"/>
+        <v>54918</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" si="70"/>
+        <v>56700</v>
+      </c>
+      <c r="S53" s="11">
+        <f t="shared" ref="S53:T53" si="71">SUM(S50:S52)</f>
+        <v>61115</v>
+      </c>
+      <c r="T53" s="148">
+        <f t="shared" si="71"/>
+        <v>62645</v>
+      </c>
+      <c r="U53" s="14">
+        <f t="shared" ref="U53:W53" si="72">SUM(U50:U52)</f>
+        <v>63394</v>
+      </c>
+      <c r="V53" s="148">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="P53" s="11">
-        <f>SUM(P50:P52)</f>
+      <c r="W53" s="148">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="11">
-        <f>SUM(Q50:Q52)</f>
-        <v>0</v>
-      </c>
-      <c r="R53" s="11">
-        <f>SUM(R50:R52)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="11">
-        <f>SUM(S50:S52)</f>
-        <v>58350</v>
-      </c>
-      <c r="T53" s="11">
-        <f>SUM(T50:T52)</f>
-        <v>57328</v>
-      </c>
-      <c r="U53" s="11">
-        <f>SUM(U50:U52)</f>
-        <v>54918</v>
-      </c>
-      <c r="V53" s="11">
-        <f>SUM(V50:V52)</f>
-        <v>56700</v>
-      </c>
-      <c r="W53" s="11">
-        <f t="shared" ref="W53:Y53" si="78">SUM(W50:W52)</f>
-        <v>61115</v>
-      </c>
-      <c r="X53" s="14">
-        <f t="shared" si="78"/>
-        <v>62645</v>
-      </c>
-      <c r="Y53" s="11">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10">
         <f>C46-C53</f>
@@ -16664,111 +16692,103 @@
         <v>21051</v>
       </c>
       <c r="L54" s="10">
-        <f>L46-L53</f>
+        <f t="shared" ref="L54:R54" si="73">L46-L53</f>
         <v>0</v>
       </c>
       <c r="M54" s="10">
-        <f>M46-M53</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N54" s="10">
-        <f>N46-N53</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O54" s="10">
-        <f>O46-O53</f>
+        <f t="shared" si="73"/>
+        <v>20274</v>
+      </c>
+      <c r="P54" s="10">
+        <f t="shared" si="73"/>
+        <v>19858</v>
+      </c>
+      <c r="Q54" s="10">
+        <f t="shared" si="73"/>
+        <v>19661</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" si="73"/>
+        <v>19740</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" ref="S54:T54" si="74">S46-S53</f>
+        <v>21051</v>
+      </c>
+      <c r="T54" s="147">
+        <f t="shared" si="74"/>
+        <v>20702</v>
+      </c>
+      <c r="U54" s="15">
+        <f t="shared" ref="U54:W54" si="75">U46-U53</f>
+        <v>20622</v>
+      </c>
+      <c r="V54" s="147">
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="P54" s="10">
-        <f>P46-P53</f>
+      <c r="W54" s="147">
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="10">
-        <f>Q46-Q53</f>
-        <v>0</v>
-      </c>
-      <c r="R54" s="10">
-        <f>R46-R53</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="10">
-        <f>S46-S53</f>
-        <v>20274</v>
-      </c>
-      <c r="T54" s="10">
-        <f>T46-T53</f>
-        <v>19858</v>
-      </c>
-      <c r="U54" s="10">
-        <f>U46-U53</f>
-        <v>19661</v>
-      </c>
-      <c r="V54" s="10">
-        <f>V46-V53</f>
-        <v>19740</v>
-      </c>
-      <c r="W54" s="10">
-        <f t="shared" ref="W54:Y54" si="79">W46-W53</f>
-        <v>21051</v>
-      </c>
-      <c r="X54" s="15">
-        <f t="shared" si="79"/>
-        <v>20702</v>
-      </c>
-      <c r="Y54" s="10">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="145">
-        <f t="shared" ref="E56:F56" si="80">E52/D52-1</f>
+        <v>146</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="122">
+        <f t="shared" ref="E56:F56" si="76">E52/D52-1</f>
         <v>-9.9563709587202176E-2</v>
       </c>
-      <c r="F56" s="145">
-        <f t="shared" si="80"/>
+      <c r="F56" s="122">
+        <f t="shared" si="76"/>
         <v>0.29419803702323266</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="47">
         <f>G52/F52-1</f>
         <v>-7.1133723720840925E-2</v>
       </c>
-      <c r="W56" s="146"/>
-      <c r="X56" s="16"/>
-    </row>
-    <row r="57" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T56" s="152"/>
+      <c r="U56" s="16"/>
+    </row>
+    <row r="57" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="145">
-        <f t="shared" ref="E57" si="81">(E33+E34+E41)/(D33+D34+D41)-1</f>
+        <v>147</v>
+      </c>
+      <c r="E57" s="122">
+        <f t="shared" ref="E57" si="77">(E33+E34+E41)/(D33+D34+D41)-1</f>
         <v>-0.14995827248070104</v>
       </c>
-      <c r="F57" s="145">
+      <c r="F57" s="122">
         <f>(F33+F34+F41)/(E33+E34+E41)-1</f>
         <v>-2.5219365527397675E-2</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="47">
         <f>(G33+G34+G41)/(F33+F34+F41)-1</f>
         <v>9.1086491250157442E-2</v>
       </c>
-      <c r="W57" s="146"/>
-      <c r="X57" s="16"/>
-    </row>
-    <row r="74" spans="7:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T57" s="152"/>
+      <c r="U57" s="16"/>
+    </row>
+    <row r="74" spans="7:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G74" s="42"/>
-      <c r="W74" s="160"/>
-      <c r="X74" s="42"/>
-    </row>
-    <row r="75" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T74" s="153"/>
+      <c r="U74" s="42"/>
+    </row>
+    <row r="75" spans="7:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G75" s="16"/>
-      <c r="W75" s="146"/>
-      <c r="X75" s="16"/>
+      <c r="T75" s="152"/>
+      <c r="U75" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16787,15 +16807,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -16843,26 +16863,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16872,7 +16892,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16883,7 +16903,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25178,60 +25198,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132"/>
+        <v>88</v>
+      </c>
+      <c r="H1" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="M3" s="64" t="s">
         <v>95</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -25239,27 +25259,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="66" t="e">
+      <c r="H4" s="65" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="67" t="e">
+      <c r="I4" s="66" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="67">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="68" t="e">
+      <c r="K4" s="67" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="69" t="e">
+      <c r="L4" s="68" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="70" t="e">
+      <c r="M4" s="69" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -25269,27 +25289,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="71" t="e">
+      <c r="H5" s="70" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="72" t="e">
+      <c r="I5" s="71" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="72">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="74" t="e">
+      <c r="K5" s="73" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="75" t="e">
+      <c r="L5" s="74" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="76" t="e">
+      <c r="M5" s="75" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -25299,27 +25319,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="71" t="e">
+      <c r="H6" s="70" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="72" t="e">
+      <c r="I6" s="71" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="72">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="74" t="e">
+      <c r="K6" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="75" t="e">
+      <c r="L6" s="74" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="76" t="e">
+      <c r="M6" s="75" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -25329,27 +25349,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="71" t="e">
+      <c r="H7" s="70" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="72" t="e">
+      <c r="I7" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="74" t="e">
+      <c r="K7" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="75" t="e">
+      <c r="L7" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="76" t="e">
+      <c r="M7" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25359,27 +25379,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="71" t="e">
+      <c r="H8" s="70" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="72" t="e">
+      <c r="I8" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="74" t="e">
+      <c r="K8" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="75" t="e">
+      <c r="L8" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="76" t="e">
+      <c r="M8" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25389,27 +25409,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="71" t="e">
+      <c r="H9" s="70" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="72" t="e">
+      <c r="I9" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="74" t="e">
+      <c r="K9" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="75" t="e">
+      <c r="L9" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="76" t="e">
+      <c r="M9" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25419,27 +25439,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="71" t="e">
+      <c r="H10" s="70" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="72" t="e">
+      <c r="I10" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="74" t="e">
+      <c r="K10" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="75" t="e">
+      <c r="L10" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="76" t="e">
+      <c r="M10" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25449,27 +25469,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="71" t="e">
+      <c r="H11" s="70" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="72" t="e">
+      <c r="I11" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="74" t="e">
+      <c r="K11" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="75" t="e">
+      <c r="L11" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="76" t="e">
+      <c r="M11" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25479,27 +25499,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="71" t="e">
+      <c r="H12" s="70" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="72" t="e">
+      <c r="I12" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="74" t="e">
+      <c r="K12" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="75" t="e">
+      <c r="L12" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="76" t="e">
+      <c r="M12" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25509,27 +25529,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="71" t="e">
+      <c r="H13" s="70" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="72" t="e">
+      <c r="I13" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="74" t="e">
+      <c r="K13" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="75" t="e">
+      <c r="L13" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="76" t="e">
+      <c r="M13" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25539,27 +25559,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="71" t="e">
+      <c r="H14" s="70" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="72" t="e">
+      <c r="I14" s="71" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="72">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="74" t="e">
+      <c r="K14" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="75" t="e">
+      <c r="L14" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="76" t="e">
+      <c r="M14" s="75" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25569,23 +25589,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="78">
+      <c r="H15" s="76"/>
+      <c r="I15" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="77">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="78" t="e">
+      <c r="K15" s="77" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="79" t="e">
+      <c r="L15" s="78" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="79" t="e">
+      <c r="M15" s="78" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25595,350 +25615,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="134"/>
-      <c r="M17" s="81"/>
+      <c r="H17" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="140"/>
+      <c r="M17" s="80"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
-      <c r="M18" s="81"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="119" t="e">
+      <c r="H19" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="118" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="81"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="119" t="e">
+      <c r="H20" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="118" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="81"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="119" t="e">
+      <c r="H21" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="118" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="81"/>
+      <c r="M21" s="80"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="119" t="e">
+      <c r="H22" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="118" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="81"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="119" t="e">
+      <c r="H23" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="118" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="81"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="119" t="e">
+      <c r="H24" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="118" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="81"/>
+      <c r="M24" s="80"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="120" t="e">
+      <c r="H25" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="119" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="81"/>
+      <c r="M25" s="80"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="120" t="e">
+      <c r="H26" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="119" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="80"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="119" t="e">
+      <c r="H27" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="118" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="119" t="e">
+      <c r="H28" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="118" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="80"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="119" t="e">
+      <c r="H29" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="118" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="81"/>
+      <c r="M29" s="80"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="120" t="e">
+      <c r="H30" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="119" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="81"/>
+      <c r="M30" s="80"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="60">
+      <c r="H31" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="59">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="81"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="M32" s="81"/>
+      <c r="H32" s="84"/>
+      <c r="M32" s="80"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="K33" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="L33" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="M33" s="81"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="80"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="75" t="e">
+      <c r="H34" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="74" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="72">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="75" t="e">
+      <c r="K34" s="74" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="76" t="e">
+      <c r="L34" s="75" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="81"/>
+      <c r="M34" s="80"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="75" t="e">
+      <c r="H35" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="74" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="72">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="75" t="e">
+      <c r="K35" s="74" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="76" t="e">
+      <c r="L35" s="75" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="81"/>
+      <c r="M35" s="80"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="78">
+      <c r="H36" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="77">
         <v>0</v>
       </c>
-      <c r="J36" s="78">
+      <c r="J36" s="77">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="91" t="e">
+      <c r="K36" s="90" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="79" t="e">
+      <c r="L36" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="81"/>
+      <c r="M36" s="80"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="85"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="81"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="80"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="66" t="s">
+      <c r="H38" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="87" t="s">
+      <c r="M38" s="87" t="s">
         <v>120</v>
-      </c>
-      <c r="J38" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="88" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -25946,26 +25966,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="93">
+      <c r="H39" s="92">
         <v>1</v>
       </c>
-      <c r="I39" s="75" t="e">
+      <c r="I39" s="74" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="75" t="e">
+      <c r="J39" s="74" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="75" t="e">
+      <c r="L39" s="74" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="76">
+      <c r="M39" s="75">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -25974,26 +25994,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="93">
+      <c r="H40" s="92">
         <v>2</v>
       </c>
-      <c r="I40" s="75" t="e">
+      <c r="I40" s="74" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="75" t="e">
+      <c r="J40" s="74" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="73">
+      <c r="K40" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="75" t="e">
+      <c r="L40" s="74" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="76">
+      <c r="M40" s="75">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -26002,26 +26022,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="93">
+      <c r="H41" s="92">
         <v>3</v>
       </c>
-      <c r="I41" s="75" t="e">
+      <c r="I41" s="74" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="75" t="e">
+      <c r="J41" s="74" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="73">
+      <c r="K41" s="72">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="75" t="e">
+      <c r="L41" s="74" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="93">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -26030,46 +26050,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="71"/>
-      <c r="M42" s="94"/>
+      <c r="H42" s="70"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="139"/>
+      <c r="H43" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="145"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="95">
+      <c r="H44" s="94">
         <v>0.01</v>
       </c>
-      <c r="I44" s="96" t="e">
+      <c r="I44" s="95" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="97">
+      <c r="J44" s="96">
         <v>0.2</v>
       </c>
-      <c r="K44" s="96" t="e">
+      <c r="K44" s="95" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="97">
+      <c r="L44" s="96">
         <v>0.85</v>
       </c>
-      <c r="M44" s="98" t="e">
+      <c r="M44" s="97" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -26079,24 +26099,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="99">
+      <c r="H45" s="98">
         <v>0.02</v>
       </c>
-      <c r="I45" s="100" t="e">
+      <c r="I45" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="101">
+      <c r="J45" s="100">
         <v>0.25</v>
       </c>
-      <c r="K45" s="100" t="e">
+      <c r="K45" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="101">
+      <c r="L45" s="100">
         <v>0.86</v>
       </c>
-      <c r="M45" s="102" t="e">
+      <c r="M45" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26106,24 +26126,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="99">
+      <c r="H46" s="98">
         <v>0.03</v>
       </c>
-      <c r="I46" s="100" t="e">
+      <c r="I46" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="101">
+      <c r="J46" s="100">
         <v>0.3</v>
       </c>
-      <c r="K46" s="100" t="e">
+      <c r="K46" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="101">
+      <c r="L46" s="100">
         <v>0.87</v>
       </c>
-      <c r="M46" s="102" t="e">
+      <c r="M46" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26133,24 +26153,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="99">
+      <c r="H47" s="98">
         <v>0.04</v>
       </c>
-      <c r="I47" s="100" t="e">
+      <c r="I47" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="101">
+      <c r="J47" s="100">
         <v>0.35</v>
       </c>
-      <c r="K47" s="100" t="e">
+      <c r="K47" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="101">
+      <c r="L47" s="100">
         <v>0.88</v>
       </c>
-      <c r="M47" s="102" t="e">
+      <c r="M47" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26160,24 +26180,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="99">
+      <c r="H48" s="98">
         <v>0.05</v>
       </c>
-      <c r="I48" s="100" t="e">
+      <c r="I48" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="101">
+      <c r="J48" s="100">
         <v>0.4</v>
       </c>
-      <c r="K48" s="100" t="e">
+      <c r="K48" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="101">
+      <c r="L48" s="100">
         <v>0.89</v>
       </c>
-      <c r="M48" s="102" t="e">
+      <c r="M48" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26187,24 +26207,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="99">
+      <c r="H49" s="98">
         <v>0.06</v>
       </c>
-      <c r="I49" s="100" t="e">
+      <c r="I49" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="101">
+      <c r="J49" s="100">
         <v>0.45</v>
       </c>
-      <c r="K49" s="100" t="e">
+      <c r="K49" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="101">
+      <c r="L49" s="100">
         <v>0.9</v>
       </c>
-      <c r="M49" s="102" t="e">
+      <c r="M49" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26214,24 +26234,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="99">
+      <c r="H50" s="98">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="100" t="e">
+      <c r="I50" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="101">
+      <c r="J50" s="100">
         <v>0.5</v>
       </c>
-      <c r="K50" s="100" t="e">
+      <c r="K50" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="101">
+      <c r="L50" s="100">
         <v>0.91</v>
       </c>
-      <c r="M50" s="102" t="e">
+      <c r="M50" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26241,24 +26261,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="99">
+      <c r="H51" s="98">
         <v>0.08</v>
       </c>
-      <c r="I51" s="100" t="e">
+      <c r="I51" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="101">
+      <c r="J51" s="100">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="100" t="e">
+      <c r="K51" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="101">
+      <c r="L51" s="100">
         <v>0.92</v>
       </c>
-      <c r="M51" s="102" t="e">
+      <c r="M51" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26268,24 +26288,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="99">
+      <c r="H52" s="98">
         <v>0.09</v>
       </c>
-      <c r="I52" s="100" t="e">
+      <c r="I52" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="101">
+      <c r="J52" s="100">
         <v>0.6</v>
       </c>
-      <c r="K52" s="100" t="e">
+      <c r="K52" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="101">
+      <c r="L52" s="100">
         <v>0.93</v>
       </c>
-      <c r="M52" s="102" t="e">
+      <c r="M52" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26295,24 +26315,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="99">
+      <c r="H53" s="98">
         <v>0.1</v>
       </c>
-      <c r="I53" s="100" t="e">
+      <c r="I53" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="101">
+      <c r="J53" s="100">
         <v>0.65</v>
       </c>
-      <c r="K53" s="100" t="e">
+      <c r="K53" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="101">
+      <c r="L53" s="100">
         <v>0.94</v>
       </c>
-      <c r="M53" s="102" t="e">
+      <c r="M53" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26322,24 +26342,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="99">
+      <c r="H54" s="98">
         <v>0.11</v>
       </c>
-      <c r="I54" s="100" t="e">
+      <c r="I54" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="101">
+      <c r="J54" s="100">
         <v>0.7</v>
       </c>
-      <c r="K54" s="100" t="e">
+      <c r="K54" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="101">
+      <c r="L54" s="100">
         <v>0.95</v>
       </c>
-      <c r="M54" s="102" t="e">
+      <c r="M54" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26349,24 +26369,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="99">
+      <c r="H55" s="98">
         <v>0.12</v>
       </c>
-      <c r="I55" s="100" t="e">
+      <c r="I55" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="101">
+      <c r="J55" s="100">
         <v>0.75</v>
       </c>
-      <c r="K55" s="100" t="e">
+      <c r="K55" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="101">
+      <c r="L55" s="100">
         <v>0.96</v>
       </c>
-      <c r="M55" s="102" t="e">
+      <c r="M55" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26376,24 +26396,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="99">
+      <c r="H56" s="98">
         <v>0.13</v>
       </c>
-      <c r="I56" s="100" t="e">
+      <c r="I56" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="101">
+      <c r="J56" s="100">
         <v>0.8</v>
       </c>
-      <c r="K56" s="100" t="e">
+      <c r="K56" s="99" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="101">
+      <c r="L56" s="100">
         <v>0.97</v>
       </c>
-      <c r="M56" s="102" t="e">
+      <c r="M56" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26403,19 +26423,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="99">
+      <c r="H57" s="98">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="100" t="e">
+      <c r="I57" s="99" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="101"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="101">
+      <c r="J57" s="100"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="100">
         <v>0.98</v>
       </c>
-      <c r="M57" s="102" t="e">
+      <c r="M57" s="101" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26425,19 +26445,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="103">
+      <c r="H58" s="102">
         <v>0.15</v>
       </c>
-      <c r="I58" s="104" t="e">
+      <c r="I58" s="103" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="105"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="106">
+      <c r="J58" s="104"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="105">
         <v>0.99</v>
       </c>
-      <c r="M58" s="107" t="e">
+      <c r="M58" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26453,47 +26473,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="109"/>
+      <c r="H60" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="108"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="111"/>
+      <c r="H61" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="110"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="112"/>
+      <c r="H62" s="111"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="I63" s="113"/>
+      <c r="H63" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="112"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="115">
+      <c r="H64" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="114">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -26503,10 +26523,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="I65" s="116">
+      <c r="H65" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="115">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>
